--- a/lookupData/objectives-en.xlsx
+++ b/lookupData/objectives-en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\BedrockStatsTracker\lookupData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C4734E-4AB8-47BF-82B7-8A505D0A497A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD32B7E1-551E-4DF1-B39E-EA51D736A9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="622">
   <si>
     <t>Achievement</t>
   </si>
@@ -1886,6 +1886,12 @@
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t>Achievement (Script Variable Title)</t>
+  </si>
+  <si>
+    <t>Advancement  (Script Variable Title)</t>
   </si>
 </sst>
 </file>
@@ -1942,7 +1948,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1995,26 +2007,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4296510E-F1CC-43F9-B169-2E18CC62CD58}" name="Table1" displayName="Table1" ref="A1:D126" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:D126" xr:uid="{4296510E-F1CC-43F9-B169-2E18CC62CD58}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{FD94F98D-E627-4DB2-8271-86FB2FDFC960}" name="Achievement" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{D94F8502-F6F5-4D46-A6D6-F44A7DABBD5B}" name="In-game description" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{9D34F8DA-F93F-434D-AC06-421B193577E1}" name="Actual requirements (if different)" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{47E56C60-3F32-4A68-B722-B0BD6CB3BE7D}" name="#" dataDxfId="6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4296510E-F1CC-43F9-B169-2E18CC62CD58}" name="Table1" displayName="Table1" ref="A1:E126" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:E126" xr:uid="{4296510E-F1CC-43F9-B169-2E18CC62CD58}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E126">
+    <sortCondition ref="D1:D126"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{FD94F98D-E627-4DB2-8271-86FB2FDFC960}" name="Achievement" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{D94F8502-F6F5-4D46-A6D6-F44A7DABBD5B}" name="In-game description" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{9D34F8DA-F93F-434D-AC06-421B193577E1}" name="Actual requirements (if different)" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{47E56C60-3F32-4A68-B722-B0BD6CB3BE7D}" name="#" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{A67BA511-7F74-4DBD-8285-EB0B3BDE7174}" name="Achievement (Script Variable Title)" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{54FDD79E-9496-444E-BAAB-2BDD7213F39D}" name="Table2" displayName="Table2" ref="A1:D111" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D111" xr:uid="{54FDD79E-9496-444E-BAAB-2BDD7213F39D}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{28B57E88-78E1-4471-B423-47178E900D39}" name="Advancement" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{3330A286-8064-4F71-8D6D-082AF5351B16}" name="In-game description" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{C6C9DE83-41CB-42D6-BAFA-5804D4D2C45F}" name="Actual requirements (if different)" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{27AB76C4-3016-4553-A87A-9C1F759A0798}" name="#" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{54FDD79E-9496-444E-BAAB-2BDD7213F39D}" name="Table2" displayName="Table2" ref="A1:E111" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:E111" xr:uid="{54FDD79E-9496-444E-BAAB-2BDD7213F39D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E111">
+    <sortCondition ref="D1:D111"/>
+  </sortState>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{28B57E88-78E1-4471-B423-47178E900D39}" name="Advancement" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{3330A286-8064-4F71-8D6D-082AF5351B16}" name="In-game description" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{C6C9DE83-41CB-42D6-BAFA-5804D4D2C45F}" name="Actual requirements (if different)" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{27AB76C4-3016-4553-A87A-9C1F759A0798}" name="#" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{FF11131C-C5A2-4438-95D7-DCC625EAB401}" name="Advancement  (Script Variable Title)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2283,7 +2303,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D126"/>
+  <dimension ref="A1:E126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2297,7 +2317,7 @@
     <col min="5" max="16384" width="50.59765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2310,8 +2330,11 @@
       <c r="D1" s="2" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E1" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>250</v>
       </c>
@@ -2324,8 +2347,11 @@
       <c r="D2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E2" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>103</v>
       </c>
@@ -2338,8 +2364,11 @@
       <c r="D3" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E3" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -2352,8 +2381,11 @@
       <c r="D4" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>289</v>
       </c>
@@ -2366,8 +2398,11 @@
       <c r="D5" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E5" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>110</v>
       </c>
@@ -2380,8 +2415,11 @@
       <c r="D6" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E6" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2394,8 +2432,11 @@
       <c r="D7" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>286</v>
       </c>
@@ -2408,8 +2449,11 @@
       <c r="D8" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E8" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -2422,8 +2466,11 @@
       <c r="D9" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>279</v>
       </c>
@@ -2436,8 +2483,11 @@
       <c r="D10" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E10" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>100</v>
       </c>
@@ -2450,8 +2500,11 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="E11" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>63</v>
       </c>
@@ -2464,8 +2517,11 @@
       <c r="D12" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E12" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>171</v>
       </c>
@@ -2478,8 +2534,11 @@
       <c r="D13" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E13" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>292</v>
       </c>
@@ -2492,8 +2551,11 @@
       <c r="D14" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E14" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>165</v>
       </c>
@@ -2506,8 +2568,11 @@
       <c r="D15" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E15" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>60</v>
       </c>
@@ -2520,8 +2585,11 @@
       <c r="D16" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E16" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>314</v>
       </c>
@@ -2534,8 +2602,11 @@
       <c r="D17" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E17" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>229</v>
       </c>
@@ -2548,8 +2619,11 @@
       <c r="D18" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E18" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>69</v>
       </c>
@@ -2562,8 +2636,11 @@
       <c r="D19" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E19" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>126</v>
       </c>
@@ -2576,8 +2653,11 @@
       <c r="D20" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E20" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>210</v>
       </c>
@@ -2590,8 +2670,11 @@
       <c r="D21" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E21" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>123</v>
       </c>
@@ -2604,8 +2687,11 @@
       <c r="D22" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E22" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>150</v>
       </c>
@@ -2618,8 +2704,11 @@
       <c r="D23" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E23" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>269</v>
       </c>
@@ -2632,8 +2721,11 @@
       <c r="D24" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E24" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>266</v>
       </c>
@@ -2646,8 +2738,11 @@
       <c r="D25" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E25" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>84</v>
       </c>
@@ -2660,8 +2755,11 @@
       <c r="D26" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E26" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>181</v>
       </c>
@@ -2674,8 +2772,11 @@
       <c r="D27" s="3">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E27" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>145</v>
       </c>
@@ -2688,8 +2789,11 @@
       <c r="D28" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E28" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
@@ -2702,8 +2806,11 @@
       <c r="D29" s="3">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E29" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>258</v>
       </c>
@@ -2716,8 +2823,11 @@
       <c r="D30" s="3">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E30" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>261</v>
       </c>
@@ -2730,8 +2840,11 @@
       <c r="D31" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E31" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>255</v>
       </c>
@@ -2744,8 +2857,11 @@
       <c r="D32" s="3">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E32" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>207</v>
       </c>
@@ -2758,8 +2874,11 @@
       <c r="D33" s="3">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E33" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -2772,8 +2891,11 @@
       <c r="D34" s="3">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E34" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>184</v>
       </c>
@@ -2786,8 +2908,11 @@
       <c r="D35" s="3">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E35" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>162</v>
       </c>
@@ -2800,8 +2925,11 @@
       <c r="D36" s="3">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E36" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>74</v>
       </c>
@@ -2814,8 +2942,11 @@
       <c r="D37" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E37" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>140</v>
       </c>
@@ -2828,8 +2959,11 @@
       <c r="D38" s="3">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E38" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>195</v>
       </c>
@@ -2842,8 +2976,11 @@
       <c r="D39" s="3">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E39" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>187</v>
       </c>
@@ -2856,8 +2993,11 @@
       <c r="D40" s="3">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E40" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>274</v>
       </c>
@@ -2870,8 +3010,11 @@
       <c r="D41" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E41" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>197</v>
       </c>
@@ -2884,8 +3027,11 @@
       <c r="D42" s="3">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E42" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>136</v>
       </c>
@@ -2898,8 +3044,11 @@
       <c r="D43" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E43" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>129</v>
       </c>
@@ -2912,8 +3061,11 @@
       <c r="D44" s="3">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E44" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>108</v>
       </c>
@@ -2926,8 +3078,11 @@
       <c r="D45" s="3">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E45" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>201</v>
       </c>
@@ -2940,8 +3095,11 @@
       <c r="D46" s="3">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E46" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>242</v>
       </c>
@@ -2954,8 +3112,11 @@
       <c r="D47" s="3">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="E47" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>54</v>
       </c>
@@ -2968,8 +3129,11 @@
       <c r="D48" s="3">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E48" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>204</v>
       </c>
@@ -2982,8 +3146,11 @@
       <c r="D49" s="3">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E49" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>35</v>
       </c>
@@ -2996,8 +3163,11 @@
       <c r="D50" s="3">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E50" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>132</v>
       </c>
@@ -3010,8 +3180,11 @@
       <c r="D51" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E51" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>326</v>
       </c>
@@ -3024,8 +3197,11 @@
       <c r="D52" s="3">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E52" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>148</v>
       </c>
@@ -3038,8 +3214,11 @@
       <c r="D53" s="3">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E53" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>15</v>
       </c>
@@ -3052,8 +3231,11 @@
       <c r="D54" s="3">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E54" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>282</v>
       </c>
@@ -3066,8 +3248,11 @@
       <c r="D55" s="3">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E55" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>300</v>
       </c>
@@ -3080,8 +3265,11 @@
       <c r="D56" s="3">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E56" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>42</v>
       </c>
@@ -3094,8 +3282,11 @@
       <c r="D57" s="3">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E57" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>153</v>
       </c>
@@ -3108,8 +3299,11 @@
       <c r="D58" s="3">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E58" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>95</v>
       </c>
@@ -3122,8 +3316,11 @@
       <c r="D59" s="3">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E59" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>221</v>
       </c>
@@ -3136,8 +3333,11 @@
       <c r="D60" s="3">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E60" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>252</v>
       </c>
@@ -3150,8 +3350,11 @@
       <c r="D61" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E61" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>121</v>
       </c>
@@ -3164,8 +3367,11 @@
       <c r="D62" s="3">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E62" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>213</v>
       </c>
@@ -3178,8 +3384,11 @@
       <c r="D63" s="3">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E63" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>17</v>
       </c>
@@ -3192,8 +3401,11 @@
       <c r="D64" s="3">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E64" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>92</v>
       </c>
@@ -3206,8 +3418,11 @@
       <c r="D65" s="3">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E65" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>199</v>
       </c>
@@ -3220,8 +3435,11 @@
       <c r="D66" s="3">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E66" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>264</v>
       </c>
@@ -3234,8 +3452,11 @@
       <c r="D67" s="3">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E67" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>79</v>
       </c>
@@ -3248,8 +3469,11 @@
       <c r="D68" s="3">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E68" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>246</v>
       </c>
@@ -3262,8 +3486,11 @@
       <c r="D69" s="3">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E69" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>323</v>
       </c>
@@ -3276,8 +3503,11 @@
       <c r="D70" s="3">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E70" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>24</v>
       </c>
@@ -3290,8 +3520,11 @@
       <c r="D71" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E71" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>272</v>
       </c>
@@ -3304,8 +3537,11 @@
       <c r="D72" s="3">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E72" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>106</v>
       </c>
@@ -3318,8 +3554,11 @@
       <c r="D73" s="3">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E73" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>248</v>
       </c>
@@ -3332,8 +3571,11 @@
       <c r="D74" s="3">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E74" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>302</v>
       </c>
@@ -3346,8 +3588,11 @@
       <c r="D75" s="3">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E75" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>179</v>
       </c>
@@ -3360,8 +3605,11 @@
       <c r="D76" s="3">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E76" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>51</v>
       </c>
@@ -3374,8 +3622,11 @@
       <c r="D77" s="3">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E77" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>87</v>
       </c>
@@ -3388,8 +3639,11 @@
       <c r="D78" s="3">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E78" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>143</v>
       </c>
@@ -3402,8 +3656,11 @@
       <c r="D79" s="3">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E79" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>232</v>
       </c>
@@ -3416,8 +3673,11 @@
       <c r="D80" s="3">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E80" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>19</v>
       </c>
@@ -3430,8 +3690,11 @@
       <c r="D81" s="3">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E81" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>215</v>
       </c>
@@ -3444,8 +3707,11 @@
       <c r="D82" s="3">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E82" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>46</v>
       </c>
@@ -3458,8 +3724,11 @@
       <c r="D83" s="3">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E83" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>9</v>
       </c>
@@ -3472,8 +3741,11 @@
       <c r="D84" s="3">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E84" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>116</v>
       </c>
@@ -3486,8 +3758,11 @@
       <c r="D85" s="3">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E85" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>159</v>
       </c>
@@ -3500,8 +3775,11 @@
       <c r="D86" s="3">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E86" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>218</v>
       </c>
@@ -3514,8 +3792,11 @@
       <c r="D87" s="3">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E87" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>12</v>
       </c>
@@ -3528,8 +3809,11 @@
       <c r="D88" s="3">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E88" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>76</v>
       </c>
@@ -3542,8 +3826,11 @@
       <c r="D89" s="3">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E89" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>174</v>
       </c>
@@ -3556,8 +3843,11 @@
       <c r="D90" s="3">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E90" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>81</v>
       </c>
@@ -3570,8 +3860,11 @@
       <c r="D91" s="3">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E91" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>168</v>
       </c>
@@ -3584,8 +3877,11 @@
       <c r="D92" s="3">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E92" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>295</v>
       </c>
@@ -3598,8 +3894,11 @@
       <c r="D93" s="3">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E93" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>317</v>
       </c>
@@ -3612,8 +3911,11 @@
       <c r="D94" s="3">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E94" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>329</v>
       </c>
@@ -3626,8 +3928,11 @@
       <c r="D95" s="3">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E95" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>97</v>
       </c>
@@ -3640,8 +3945,11 @@
       <c r="D96" s="3">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E96" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>192</v>
       </c>
@@ -3654,8 +3962,11 @@
       <c r="D97" s="3">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E97" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
         <v>138</v>
       </c>
@@ -3668,8 +3979,11 @@
       <c r="D98" s="3">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E98" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
         <v>39</v>
       </c>
@@ -3682,8 +3996,11 @@
       <c r="D99" s="3">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E99" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
         <v>72</v>
       </c>
@@ -3696,8 +4013,11 @@
       <c r="D100" s="3">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E100" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
         <v>308</v>
       </c>
@@ -3710,8 +4030,11 @@
       <c r="D101" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E101" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
         <v>237</v>
       </c>
@@ -3724,8 +4047,11 @@
       <c r="D102" s="3">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E102" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
         <v>119</v>
       </c>
@@ -3738,8 +4064,11 @@
       <c r="D103" s="3">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E103" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
         <v>156</v>
       </c>
@@ -3752,8 +4081,11 @@
       <c r="D104" s="3">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E104" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
         <v>284</v>
       </c>
@@ -3766,8 +4098,11 @@
       <c r="D105" s="3">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E105" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
         <v>27</v>
       </c>
@@ -3780,8 +4115,11 @@
       <c r="D106" s="3">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E106" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
         <v>298</v>
       </c>
@@ -3794,8 +4132,11 @@
       <c r="D107" s="3">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E107" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
         <v>244</v>
       </c>
@@ -3808,8 +4149,11 @@
       <c r="D108" s="3">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E108" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
         <v>37</v>
       </c>
@@ -3822,8 +4166,11 @@
       <c r="D109" s="3">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E109" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
         <v>57</v>
       </c>
@@ -3836,8 +4183,11 @@
       <c r="D110" s="3">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E110" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
         <v>176</v>
       </c>
@@ -3850,8 +4200,11 @@
       <c r="D111" s="3">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E111" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
         <v>113</v>
       </c>
@@ -3864,8 +4217,11 @@
       <c r="D112" s="3">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E112" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
         <v>311</v>
       </c>
@@ -3878,8 +4234,11 @@
       <c r="D113" s="3">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E113" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
         <v>305</v>
       </c>
@@ -3892,8 +4251,11 @@
       <c r="D114" s="3">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E114" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
         <v>276</v>
       </c>
@@ -3906,8 +4268,11 @@
       <c r="D115" s="3">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E115" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
         <v>49</v>
       </c>
@@ -3920,8 +4285,11 @@
       <c r="D116" s="3">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E116" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
         <v>239</v>
       </c>
@@ -3934,8 +4302,11 @@
       <c r="D117" s="3">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E117" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
         <v>234</v>
       </c>
@@ -3948,8 +4319,11 @@
       <c r="D118" s="3">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E118" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
         <v>89</v>
       </c>
@@ -3962,8 +4336,11 @@
       <c r="D119" s="3">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E119" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
         <v>134</v>
       </c>
@@ -3976,8 +4353,11 @@
       <c r="D120" s="3">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E120" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
         <v>32</v>
       </c>
@@ -3990,8 +4370,11 @@
       <c r="D121" s="3">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E121" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
         <v>320</v>
       </c>
@@ -4004,8 +4387,11 @@
       <c r="D122" s="3">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E122" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
         <v>226</v>
       </c>
@@ -4018,8 +4404,11 @@
       <c r="D123" s="3">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E123" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
         <v>190</v>
       </c>
@@ -4032,8 +4421,11 @@
       <c r="D124" s="3">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E124" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
         <v>44</v>
       </c>
@@ -4046,8 +4438,11 @@
       <c r="D125" s="3">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E125" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
         <v>224</v>
       </c>
@@ -4059,6 +4454,9 @@
       </c>
       <c r="D126" s="3">
         <v>125</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -4072,10 +4470,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771D2FCF-03EA-4C2E-BCB7-15D3321DB186}">
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4086,7 +4484,7 @@
     <col min="5" max="16384" width="50.59765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>331</v>
       </c>
@@ -4099,8 +4497,11 @@
       <c r="D1" s="2" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E1" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>358</v>
       </c>
@@ -4113,8 +4514,11 @@
       <c r="D2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E2" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>348</v>
       </c>
@@ -4127,8 +4531,11 @@
       <c r="D3" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E3" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>100</v>
       </c>
@@ -4141,8 +4548,11 @@
       <c r="D4" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E4" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4155,8 +4565,11 @@
       <c r="D5" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>363</v>
       </c>
@@ -4169,8 +4582,11 @@
       <c r="D6" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E6" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>350</v>
       </c>
@@ -4183,8 +4599,11 @@
       <c r="D7" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E7" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>339</v>
       </c>
@@ -4197,8 +4616,11 @@
       <c r="D8" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E8" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>361</v>
       </c>
@@ -4211,8 +4633,11 @@
       <c r="D9" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E9" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>353</v>
       </c>
@@ -4225,8 +4650,11 @@
       <c r="D10" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E10" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>336</v>
       </c>
@@ -4239,8 +4667,11 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E11" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>345</v>
       </c>
@@ -4253,8 +4684,11 @@
       <c r="D12" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E12" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>334</v>
       </c>
@@ -4267,8 +4701,11 @@
       <c r="D13" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E13" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>84</v>
       </c>
@@ -4281,8 +4718,11 @@
       <c r="D14" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="E14" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>326</v>
       </c>
@@ -4295,8 +4735,11 @@
       <c r="D15" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E15" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>343</v>
       </c>
@@ -4309,8 +4752,11 @@
       <c r="D16" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E16" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>269</v>
       </c>
@@ -4323,8 +4769,11 @@
       <c r="D17" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E17" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>373</v>
       </c>
@@ -4337,8 +4786,11 @@
       <c r="D18" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E18" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>210</v>
       </c>
@@ -4351,8 +4803,11 @@
       <c r="D19" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E19" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>377</v>
       </c>
@@ -4365,8 +4820,11 @@
       <c r="D20" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E20" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>379</v>
       </c>
@@ -4379,8 +4837,11 @@
       <c r="D21" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E21" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>382</v>
       </c>
@@ -4393,8 +4854,11 @@
       <c r="D22" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E22" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>385</v>
       </c>
@@ -4407,8 +4871,11 @@
       <c r="D23" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E23" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>388</v>
       </c>
@@ -4421,8 +4888,11 @@
       <c r="D24" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="142.5" x14ac:dyDescent="0.45">
+      <c r="E24" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>391</v>
       </c>
@@ -4435,8 +4905,11 @@
       <c r="D25" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E25" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>393</v>
       </c>
@@ -4449,8 +4922,11 @@
       <c r="D26" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E26" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>396</v>
       </c>
@@ -4463,8 +4939,11 @@
       <c r="D27" s="3">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E27" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>399</v>
       </c>
@@ -4477,8 +4956,11 @@
       <c r="D28" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E28" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>402</v>
       </c>
@@ -4491,8 +4973,11 @@
       <c r="D29" s="3">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E29" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>404</v>
       </c>
@@ -4505,8 +4990,11 @@
       <c r="D30" s="3">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E30" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>407</v>
       </c>
@@ -4519,8 +5007,11 @@
       <c r="D31" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E31" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>123</v>
       </c>
@@ -4533,8 +5024,11 @@
       <c r="D32" s="3">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E32" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>412</v>
       </c>
@@ -4547,8 +5041,11 @@
       <c r="D33" s="3">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E33" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>89</v>
       </c>
@@ -4561,8 +5058,11 @@
       <c r="D34" s="3">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="E34" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>415</v>
       </c>
@@ -4575,8 +5075,11 @@
       <c r="D35" s="3">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E35" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>417</v>
       </c>
@@ -4589,8 +5092,11 @@
       <c r="D36" s="3">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E36" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>150</v>
       </c>
@@ -4603,8 +5109,11 @@
       <c r="D37" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E37" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>422</v>
       </c>
@@ -4617,8 +5126,11 @@
       <c r="D38" s="3">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="E38" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>425</v>
       </c>
@@ -4631,8 +5143,11 @@
       <c r="D39" s="3">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E39" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>427</v>
       </c>
@@ -4645,8 +5160,11 @@
       <c r="D40" s="3">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="185.25" x14ac:dyDescent="0.45">
+      <c r="E40" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>430</v>
       </c>
@@ -4659,8 +5177,11 @@
       <c r="D41" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E41" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>266</v>
       </c>
@@ -4673,8 +5194,11 @@
       <c r="D42" s="3">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E42" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>435</v>
       </c>
@@ -4687,8 +5211,11 @@
       <c r="D43" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E43" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>437</v>
       </c>
@@ -4701,8 +5228,11 @@
       <c r="D44" s="3">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E44" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>440</v>
       </c>
@@ -4715,8 +5245,11 @@
       <c r="D45" s="3">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E45" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>272</v>
       </c>
@@ -4729,8 +5262,11 @@
       <c r="D46" s="3">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E46" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>323</v>
       </c>
@@ -4743,8 +5279,11 @@
       <c r="D47" s="3">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E47" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>447</v>
       </c>
@@ -4757,8 +5296,11 @@
       <c r="D48" s="3">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E48" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>450</v>
       </c>
@@ -4771,8 +5313,11 @@
       <c r="D49" s="3">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E49" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>106</v>
       </c>
@@ -4785,8 +5330,11 @@
       <c r="D50" s="3">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E50" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>454</v>
       </c>
@@ -4799,8 +5347,11 @@
       <c r="D51" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="E51" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>457</v>
       </c>
@@ -4813,8 +5364,11 @@
       <c r="D52" s="3">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E52" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>458</v>
       </c>
@@ -4827,8 +5381,11 @@
       <c r="D53" s="3">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="142.5" x14ac:dyDescent="0.45">
+      <c r="E53" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>165</v>
       </c>
@@ -4841,8 +5398,11 @@
       <c r="D54" s="3">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E54" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>461</v>
       </c>
@@ -4855,8 +5415,11 @@
       <c r="D55" s="3">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E55" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>464</v>
       </c>
@@ -4869,8 +5432,11 @@
       <c r="D56" s="3">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E56" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>467</v>
       </c>
@@ -4883,8 +5449,11 @@
       <c r="D57" s="3">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E57" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>244</v>
       </c>
@@ -4897,8 +5466,11 @@
       <c r="D58" s="3">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E58" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>471</v>
       </c>
@@ -4911,8 +5483,11 @@
       <c r="D59" s="3">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="E59" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>473</v>
       </c>
@@ -4925,8 +5500,11 @@
       <c r="D60" s="3">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E60" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>49</v>
       </c>
@@ -4939,8 +5517,11 @@
       <c r="D61" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E61" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>478</v>
       </c>
@@ -4953,8 +5534,11 @@
       <c r="D62" s="3">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E62" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>226</v>
       </c>
@@ -4967,8 +5551,11 @@
       <c r="D63" s="3">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E63" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>482</v>
       </c>
@@ -4981,8 +5568,11 @@
       <c r="D64" s="3">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="E64" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>432</v>
       </c>
@@ -4995,8 +5585,11 @@
       <c r="D65" s="3">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E65" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>486</v>
       </c>
@@ -5009,8 +5602,11 @@
       <c r="D66" s="3">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E66" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>489</v>
       </c>
@@ -5023,8 +5619,11 @@
       <c r="D67" s="3">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="185.25" x14ac:dyDescent="0.45">
+      <c r="E67" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>491</v>
       </c>
@@ -5037,8 +5636,11 @@
       <c r="D68" s="3">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E68" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>493</v>
       </c>
@@ -5051,8 +5653,11 @@
       <c r="D69" s="3">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="142.5" x14ac:dyDescent="0.45">
+      <c r="E69" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>496</v>
       </c>
@@ -5065,8 +5670,11 @@
       <c r="D70" s="3">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E70" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>498</v>
       </c>
@@ -5079,8 +5687,11 @@
       <c r="D71" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E71" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>501</v>
       </c>
@@ -5093,8 +5704,11 @@
       <c r="D72" s="3">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E72" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>504</v>
       </c>
@@ -5107,8 +5721,11 @@
       <c r="D73" s="3">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E73" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>507</v>
       </c>
@@ -5121,8 +5738,11 @@
       <c r="D74" s="3">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E74" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>508</v>
       </c>
@@ -5135,8 +5755,11 @@
       <c r="D75" s="3">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E75" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>511</v>
       </c>
@@ -5149,8 +5772,11 @@
       <c r="D76" s="3">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E76" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>514</v>
       </c>
@@ -5163,8 +5789,11 @@
       <c r="D77" s="3">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E77" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>516</v>
       </c>
@@ -5177,8 +5806,11 @@
       <c r="D78" s="3">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="228" x14ac:dyDescent="0.45">
+      <c r="E78" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="228" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>6</v>
       </c>
@@ -5191,8 +5823,11 @@
       <c r="D79" s="3">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E79" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
         <v>234</v>
       </c>
@@ -5205,8 +5840,11 @@
       <c r="D80" s="3">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E80" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
         <v>520</v>
       </c>
@@ -5219,8 +5857,11 @@
       <c r="D81" s="3">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E81" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
         <v>523</v>
       </c>
@@ -5233,8 +5874,11 @@
       <c r="D82" s="3">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E82" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>525</v>
       </c>
@@ -5247,8 +5891,11 @@
       <c r="D83" s="3">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E83" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
         <v>229</v>
       </c>
@@ -5261,8 +5908,11 @@
       <c r="D84" s="3">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E84" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
         <v>37</v>
       </c>
@@ -5275,8 +5925,11 @@
       <c r="D85" s="3">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E85" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
         <v>532</v>
       </c>
@@ -5289,8 +5942,11 @@
       <c r="D86" s="3">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E86" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>535</v>
       </c>
@@ -5303,8 +5959,11 @@
       <c r="D87" s="3">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="E87" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
         <v>538</v>
       </c>
@@ -5317,8 +5976,11 @@
       <c r="D88" s="3">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="114" x14ac:dyDescent="0.45">
+      <c r="E88" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="114" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
         <v>540</v>
       </c>
@@ -5331,8 +5993,11 @@
       <c r="D89" s="3">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E89" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
         <v>542</v>
       </c>
@@ -5345,8 +6010,11 @@
       <c r="D90" s="3">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E90" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
         <v>545</v>
       </c>
@@ -5359,8 +6027,11 @@
       <c r="D91" s="3">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E91" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>547</v>
       </c>
@@ -5373,8 +6044,11 @@
       <c r="D92" s="3">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E92" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
         <v>550</v>
       </c>
@@ -5387,8 +6061,11 @@
       <c r="D93" s="3">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E93" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
         <v>298</v>
       </c>
@@ -5401,8 +6078,11 @@
       <c r="D94" s="3">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E94" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
         <v>553</v>
       </c>
@@ -5415,8 +6095,11 @@
       <c r="D95" s="3">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="E95" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
         <v>555</v>
       </c>
@@ -5429,8 +6112,11 @@
       <c r="D96" s="3">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E96" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
         <v>557</v>
       </c>
@@ -5443,8 +6129,11 @@
       <c r="D97" s="3">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E97" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
         <v>559</v>
       </c>
@@ -5457,8 +6146,11 @@
       <c r="D98" s="3">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" ht="114" x14ac:dyDescent="0.45">
+      <c r="E98" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="114" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
         <v>562</v>
       </c>
@@ -5471,8 +6163,11 @@
       <c r="D99" s="3">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="E99" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
         <v>564</v>
       </c>
@@ -5485,8 +6180,11 @@
       <c r="D100" s="3">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E100" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
         <v>566</v>
       </c>
@@ -5499,8 +6197,11 @@
       <c r="D101" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E101" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
         <v>568</v>
       </c>
@@ -5513,8 +6214,11 @@
       <c r="D102" s="3">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E102" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
         <v>571</v>
       </c>
@@ -5527,8 +6231,11 @@
       <c r="D103" s="3">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="E103" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
         <v>574</v>
       </c>
@@ -5541,8 +6248,11 @@
       <c r="D104" s="3">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" ht="156.75" x14ac:dyDescent="0.45">
+      <c r="E104" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
         <v>576</v>
       </c>
@@ -5555,8 +6265,11 @@
       <c r="D105" s="3">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E105" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
         <v>578</v>
       </c>
@@ -5569,8 +6282,11 @@
       <c r="D106" s="3">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E106" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
         <v>581</v>
       </c>
@@ -5583,8 +6299,11 @@
       <c r="D107" s="3">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E107" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
         <v>584</v>
       </c>
@@ -5597,8 +6316,11 @@
       <c r="D108" s="3">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E108" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
         <v>587</v>
       </c>
@@ -5611,8 +6333,11 @@
       <c r="D109" s="3">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="E109" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
         <v>590</v>
       </c>
@@ -5625,8 +6350,11 @@
       <c r="D110" s="3">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="E110" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
         <v>276</v>
       </c>
@@ -5638,6 +6366,9 @@
       </c>
       <c r="D111" s="3">
         <v>110</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/lookupData/objectives-en.xlsx
+++ b/lookupData/objectives-en.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\BedrockStatsTracker\lookupData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camer\OneDrive\Documents\GitHub\BedrockStatsTracker\lookupData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD32B7E1-551E-4DF1-B39E-EA51D736A9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D56BCF-E9FD-40DF-A266-BB80DA430BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Achievements" sheetId="1" r:id="rId1"/>
     <sheet name="Advancements" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="640">
   <si>
     <t>Achievement</t>
   </si>
@@ -1891,7 +1891,61 @@
     <t>Achievement (Script Variable Title)</t>
   </si>
   <si>
-    <t>Advancement  (Script Variable Title)</t>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Achievement (English Title)</t>
+  </si>
+  <si>
+    <t>Story</t>
+  </si>
+  <si>
+    <t>Story1</t>
+  </si>
+  <si>
+    <t>Husbandry1</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>Adventure1</t>
+  </si>
+  <si>
+    <t>Nether1</t>
+  </si>
+  <si>
+    <t>The_End</t>
+  </si>
+  <si>
+    <t>The_End1</t>
+  </si>
+  <si>
+    <t>Story2</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Advancement (English Title)</t>
+  </si>
+  <si>
+    <t>story1</t>
+  </si>
+  <si>
+    <t>Adeventure2</t>
   </si>
 </sst>
 </file>
@@ -1948,12 +2002,34 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="20">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1973,10 +2049,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2007,34 +2079,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4296510E-F1CC-43F9-B169-2E18CC62CD58}" name="Table1" displayName="Table1" ref="A1:E126" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:E126" xr:uid="{4296510E-F1CC-43F9-B169-2E18CC62CD58}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4296510E-F1CC-43F9-B169-2E18CC62CD58}" name="Table1" displayName="Table1" ref="A1:H127" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:H127" xr:uid="{4296510E-F1CC-43F9-B169-2E18CC62CD58}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E126">
     <sortCondition ref="D1:D126"/>
   </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{FD94F98D-E627-4DB2-8271-86FB2FDFC960}" name="Achievement" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{D94F8502-F6F5-4D46-A6D6-F44A7DABBD5B}" name="In-game description" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{9D34F8DA-F93F-434D-AC06-421B193577E1}" name="Actual requirements (if different)" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{47E56C60-3F32-4A68-B722-B0BD6CB3BE7D}" name="#" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{A67BA511-7F74-4DBD-8285-EB0B3BDE7174}" name="Achievement (Script Variable Title)" dataDxfId="1"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{FD94F98D-E627-4DB2-8271-86FB2FDFC960}" name="Achievement" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{D94F8502-F6F5-4D46-A6D6-F44A7DABBD5B}" name="In-game description" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{9D34F8DA-F93F-434D-AC06-421B193577E1}" name="Actual requirements (if different)" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{47E56C60-3F32-4A68-B722-B0BD6CB3BE7D}" name="#" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{A67BA511-7F74-4DBD-8285-EB0B3BDE7174}" name="Achievement (Script Variable Title)" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{B514A823-6E43-41C1-9810-22E47AD08679}" name="Column1" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{31527265-64DE-4638-ADD7-6290E8328B04}" name="Column2" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{432E4361-5423-43FC-A7A1-8C0A3D6EBE61}" name="Column3" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{54FDD79E-9496-444E-BAAB-2BDD7213F39D}" name="Table2" displayName="Table2" ref="A1:E111" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:E111" xr:uid="{54FDD79E-9496-444E-BAAB-2BDD7213F39D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{54FDD79E-9496-444E-BAAB-2BDD7213F39D}" name="Table2" displayName="Table2" ref="A1:H111" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:H111" xr:uid="{54FDD79E-9496-444E-BAAB-2BDD7213F39D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E111">
     <sortCondition ref="D1:D111"/>
   </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{28B57E88-78E1-4471-B423-47178E900D39}" name="Advancement" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{3330A286-8064-4F71-8D6D-082AF5351B16}" name="In-game description" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{C6C9DE83-41CB-42D6-BAFA-5804D4D2C45F}" name="Actual requirements (if different)" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{27AB76C4-3016-4553-A87A-9C1F759A0798}" name="#" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{FF11131C-C5A2-4438-95D7-DCC625EAB401}" name="Advancement  (Script Variable Title)" dataDxfId="0"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{28B57E88-78E1-4471-B423-47178E900D39}" name="Advancement" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{3330A286-8064-4F71-8D6D-082AF5351B16}" name="In-game description" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{C6C9DE83-41CB-42D6-BAFA-5804D4D2C45F}" name="Actual requirements (if different)" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{27AB76C4-3016-4553-A87A-9C1F759A0798}" name="#" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{FF11131C-C5A2-4438-95D7-DCC625EAB401}" name="Column1" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{82ED0A77-34F2-4BBE-A373-52F72CBA1F8D}" name="Object" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{DB75B182-1053-43D2-9CB9-47C7FFF3DEDE}" name="Index" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{81839B7A-887C-4908-8072-601F3ED76542}" name="Advancement (English Title)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2303,21 +2381,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E126"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:H127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="50.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="50.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.59765625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="50.59765625" style="1"/>
-    <col min="4" max="4" width="5.59765625" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="50.59765625" style="1"/>
+    <col min="1" max="1" width="35.5703125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="50.5703125" style="1"/>
+    <col min="4" max="4" width="5.5703125" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="50.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2333,8 +2411,17 @@
       <c r="E1" s="2" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F1" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>250</v>
       </c>
@@ -2344,14 +2431,23 @@
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D2" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>103</v>
       </c>
@@ -2362,13 +2458,22 @@
         <v>105</v>
       </c>
       <c r="D3" s="3">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -2379,13 +2484,22 @@
         <v>31</v>
       </c>
       <c r="D4" s="3">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>289</v>
       </c>
@@ -2396,13 +2510,22 @@
         <v>291</v>
       </c>
       <c r="D5" s="3">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>110</v>
       </c>
@@ -2413,13 +2536,22 @@
         <v>112</v>
       </c>
       <c r="D6" s="3">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -2430,13 +2562,22 @@
         <v>5</v>
       </c>
       <c r="D7" s="3">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>286</v>
       </c>
@@ -2447,13 +2588,22 @@
         <v>288</v>
       </c>
       <c r="D8" s="3">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -2464,13 +2614,22 @@
         <v>23</v>
       </c>
       <c r="D9" s="3">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>279</v>
       </c>
@@ -2481,13 +2640,22 @@
         <v>281</v>
       </c>
       <c r="D10" s="3">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>100</v>
       </c>
@@ -2498,13 +2666,22 @@
         <v>102</v>
       </c>
       <c r="D11" s="3">
-        <v>10</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>63</v>
       </c>
@@ -2515,13 +2692,22 @@
         <v>65</v>
       </c>
       <c r="D12" s="3">
-        <v>11</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G12" s="1">
+        <v>7</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>171</v>
       </c>
@@ -2532,13 +2718,22 @@
         <v>173</v>
       </c>
       <c r="D13" s="3">
-        <v>12</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+        <v>11</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>292</v>
       </c>
@@ -2549,13 +2744,22 @@
         <v>294</v>
       </c>
       <c r="D14" s="3">
-        <v>13</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>165</v>
       </c>
@@ -2566,13 +2770,22 @@
         <v>167</v>
       </c>
       <c r="D15" s="3">
-        <v>14</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G15" s="1">
+        <v>8</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>60</v>
       </c>
@@ -2583,13 +2796,22 @@
         <v>62</v>
       </c>
       <c r="D16" s="3">
-        <v>15</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>314</v>
       </c>
@@ -2600,13 +2822,22 @@
         <v>316</v>
       </c>
       <c r="D17" s="3">
-        <v>16</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G17" s="1">
+        <v>5</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>229</v>
       </c>
@@ -2617,13 +2848,22 @@
         <v>231</v>
       </c>
       <c r="D18" s="3">
-        <v>17</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+        <v>16</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>69</v>
       </c>
@@ -2634,13 +2874,22 @@
         <v>71</v>
       </c>
       <c r="D19" s="3">
-        <v>18</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G19" s="1">
+        <v>4</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>126</v>
       </c>
@@ -2651,13 +2900,22 @@
         <v>128</v>
       </c>
       <c r="D20" s="3">
-        <v>19</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G20" s="1">
+        <v>9</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>210</v>
       </c>
@@ -2668,13 +2926,22 @@
         <v>212</v>
       </c>
       <c r="D21" s="3">
-        <v>20</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>123</v>
       </c>
@@ -2685,13 +2952,22 @@
         <v>125</v>
       </c>
       <c r="D22" s="3">
-        <v>21</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>150</v>
       </c>
@@ -2702,13 +2978,22 @@
         <v>152</v>
       </c>
       <c r="D23" s="3">
-        <v>22</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>269</v>
       </c>
@@ -2719,13 +3004,22 @@
         <v>271</v>
       </c>
       <c r="D24" s="3">
-        <v>23</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G24" s="1">
+        <v>4</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>266</v>
       </c>
@@ -2736,13 +3030,22 @@
         <v>268</v>
       </c>
       <c r="D25" s="3">
-        <v>24</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>84</v>
       </c>
@@ -2753,13 +3056,22 @@
         <v>86</v>
       </c>
       <c r="D26" s="3">
-        <v>25</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>181</v>
       </c>
@@ -2770,13 +3082,22 @@
         <v>183</v>
       </c>
       <c r="D27" s="3">
-        <v>26</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G27" s="1">
+        <v>10</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>145</v>
       </c>
@@ -2787,13 +3108,22 @@
         <v>147</v>
       </c>
       <c r="D28" s="3">
-        <v>27</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G28" s="1">
+        <v>5</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
@@ -2804,13 +3134,22 @@
         <v>8</v>
       </c>
       <c r="D29" s="3">
-        <v>28</v>
-      </c>
-      <c r="E29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G29" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="H29" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>258</v>
       </c>
@@ -2821,13 +3160,22 @@
         <v>260</v>
       </c>
       <c r="D30" s="3">
-        <v>29</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G30" s="1">
+        <v>7</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>261</v>
       </c>
@@ -2838,13 +3186,22 @@
         <v>263</v>
       </c>
       <c r="D31" s="3">
-        <v>30</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G31" s="1">
+        <v>8</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>255</v>
       </c>
@@ -2855,13 +3212,22 @@
         <v>257</v>
       </c>
       <c r="D32" s="3">
-        <v>31</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G32" s="1">
+        <v>9</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>207</v>
       </c>
@@ -2872,13 +3238,22 @@
         <v>209</v>
       </c>
       <c r="D33" s="3">
-        <v>32</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G33" s="1">
+        <v>10</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -2889,13 +3264,22 @@
         <v>68</v>
       </c>
       <c r="D34" s="3">
-        <v>33</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G34" s="1">
+        <v>4</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>184</v>
       </c>
@@ -2906,13 +3290,22 @@
         <v>186</v>
       </c>
       <c r="D35" s="3">
-        <v>34</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>33</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G35" s="1">
+        <v>11</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>162</v>
       </c>
@@ -2923,13 +3316,22 @@
         <v>164</v>
       </c>
       <c r="D36" s="3">
-        <v>35</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+        <v>34</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G36" s="1">
+        <v>12</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>74</v>
       </c>
@@ -2940,13 +3342,22 @@
         <v>11</v>
       </c>
       <c r="D37" s="3">
-        <v>36</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G37" s="1">
+        <v>13</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>140</v>
       </c>
@@ -2957,13 +3368,22 @@
         <v>142</v>
       </c>
       <c r="D38" s="3">
-        <v>37</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G38" s="1">
+        <v>14</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>195</v>
       </c>
@@ -2974,13 +3394,22 @@
         <v>11</v>
       </c>
       <c r="D39" s="3">
-        <v>38</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G39" s="1">
+        <v>5</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>187</v>
       </c>
@@ -2991,13 +3420,22 @@
         <v>189</v>
       </c>
       <c r="D40" s="3">
-        <v>39</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G40" s="1">
+        <v>6</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>274</v>
       </c>
@@ -3008,13 +3446,22 @@
         <v>11</v>
       </c>
       <c r="D41" s="3">
-        <v>40</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+        <v>39</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G41" s="1">
+        <v>8</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>197</v>
       </c>
@@ -3025,13 +3472,22 @@
         <v>11</v>
       </c>
       <c r="D42" s="3">
-        <v>41</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G42" s="1">
+        <v>15</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>136</v>
       </c>
@@ -3042,13 +3498,22 @@
         <v>11</v>
       </c>
       <c r="D43" s="3">
-        <v>42</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G43" s="1">
+        <v>16</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>129</v>
       </c>
@@ -3059,13 +3524,22 @@
         <v>131</v>
       </c>
       <c r="D44" s="3">
-        <v>43</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+        <v>42</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G44" s="1">
+        <v>17</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>108</v>
       </c>
@@ -3076,13 +3550,22 @@
         <v>11</v>
       </c>
       <c r="D45" s="3">
-        <v>44</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G45" s="1">
+        <v>9</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>201</v>
       </c>
@@ -3093,13 +3576,22 @@
         <v>203</v>
       </c>
       <c r="D46" s="3">
-        <v>45</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G46" s="1">
+        <v>6</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>242</v>
       </c>
@@ -3110,13 +3602,22 @@
         <v>11</v>
       </c>
       <c r="D47" s="3">
-        <v>46</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+        <v>45</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G47" s="1">
+        <v>7</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>54</v>
       </c>
@@ -3127,13 +3628,22 @@
         <v>56</v>
       </c>
       <c r="D48" s="3">
-        <v>47</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G48" s="1">
+        <v>10</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>204</v>
       </c>
@@ -3144,13 +3654,22 @@
         <v>206</v>
       </c>
       <c r="D49" s="3">
-        <v>48</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G49" s="1">
+        <v>18</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>35</v>
       </c>
@@ -3161,13 +3680,22 @@
         <v>11</v>
       </c>
       <c r="D50" s="3">
-        <v>49</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+        <v>48</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G50" s="1">
+        <v>19</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>132</v>
       </c>
@@ -3178,13 +3706,22 @@
         <v>11</v>
       </c>
       <c r="D51" s="3">
-        <v>50</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G51" s="1">
+        <v>8</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>326</v>
       </c>
@@ -3195,13 +3732,22 @@
         <v>328</v>
       </c>
       <c r="D52" s="3">
-        <v>51</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G52" s="1">
+        <v>20</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>148</v>
       </c>
@@ -3212,13 +3758,22 @@
         <v>11</v>
       </c>
       <c r="D53" s="3">
-        <v>52</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G53" s="1">
+        <v>9</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>15</v>
       </c>
@@ -3229,13 +3784,22 @@
         <v>11</v>
       </c>
       <c r="D54" s="3">
-        <v>53</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G54" s="1">
+        <v>10</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>282</v>
       </c>
@@ -3246,13 +3810,22 @@
         <v>11</v>
       </c>
       <c r="D55" s="3">
-        <v>54</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G55" s="1">
+        <v>11</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>300</v>
       </c>
@@ -3263,13 +3836,22 @@
         <v>11</v>
       </c>
       <c r="D56" s="3">
-        <v>55</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G56" s="1">
+        <v>21</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>42</v>
       </c>
@@ -3280,13 +3862,22 @@
         <v>11</v>
       </c>
       <c r="D57" s="3">
-        <v>56</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G57" s="1">
+        <v>12</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>153</v>
       </c>
@@ -3297,13 +3888,22 @@
         <v>155</v>
       </c>
       <c r="D58" s="3">
-        <v>57</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>56</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G58" s="1">
+        <v>13</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>95</v>
       </c>
@@ -3314,13 +3914,22 @@
         <v>11</v>
       </c>
       <c r="D59" s="3">
-        <v>58</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G59" s="1">
+        <v>22</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>221</v>
       </c>
@@ -3331,13 +3940,22 @@
         <v>223</v>
       </c>
       <c r="D60" s="3">
-        <v>59</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G60" s="1">
+        <v>23</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>252</v>
       </c>
@@ -3348,13 +3966,22 @@
         <v>254</v>
       </c>
       <c r="D61" s="3">
-        <v>60</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>59</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G61" s="1">
+        <v>24</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>121</v>
       </c>
@@ -3365,13 +3992,22 @@
         <v>11</v>
       </c>
       <c r="D62" s="3">
-        <v>61</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G62" s="1">
+        <v>14</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>213</v>
       </c>
@@ -3382,13 +4018,22 @@
         <v>11</v>
       </c>
       <c r="D63" s="3">
-        <v>62</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+        <v>61</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G63" s="1">
+        <v>24</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>17</v>
       </c>
@@ -3399,13 +4044,22 @@
         <v>11</v>
       </c>
       <c r="D64" s="3">
-        <v>63</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+        <v>62</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G64" s="1">
+        <v>11</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>92</v>
       </c>
@@ -3416,13 +4070,22 @@
         <v>94</v>
       </c>
       <c r="D65" s="3">
-        <v>64</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+        <v>63</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G65" s="1">
+        <v>12</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>199</v>
       </c>
@@ -3433,13 +4096,22 @@
         <v>11</v>
       </c>
       <c r="D66" s="3">
-        <v>65</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+        <v>64</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G66" s="1">
+        <v>15</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>264</v>
       </c>
@@ -3450,13 +4122,22 @@
         <v>11</v>
       </c>
       <c r="D67" s="3">
-        <v>66</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G67" s="1">
+        <v>13</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>79</v>
       </c>
@@ -3467,13 +4148,22 @@
         <v>11</v>
       </c>
       <c r="D68" s="3">
-        <v>67</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+        <v>66</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G68" s="1">
+        <v>16</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>246</v>
       </c>
@@ -3484,13 +4174,22 @@
         <v>11</v>
       </c>
       <c r="D69" s="3">
-        <v>68</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+        <v>67</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G69" s="1">
+        <v>25</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>323</v>
       </c>
@@ -3501,13 +4200,22 @@
         <v>325</v>
       </c>
       <c r="D70" s="3">
-        <v>69</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>68</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G70" s="1">
+        <v>26</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>24</v>
       </c>
@@ -3518,13 +4226,22 @@
         <v>26</v>
       </c>
       <c r="D71" s="3">
-        <v>70</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+        <v>69</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="G71" s="1">
+        <v>3</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>272</v>
       </c>
@@ -3535,13 +4252,22 @@
         <v>11</v>
       </c>
       <c r="D72" s="3">
-        <v>71</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+        <v>70</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G72" s="1">
+        <v>11</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>106</v>
       </c>
@@ -3552,13 +4278,22 @@
         <v>11</v>
       </c>
       <c r="D73" s="3">
-        <v>72</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>71</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="G73" s="1">
+        <v>4</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>248</v>
       </c>
@@ -3569,13 +4304,22 @@
         <v>11</v>
       </c>
       <c r="D74" s="3">
-        <v>73</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>72</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="G74" s="1">
+        <v>5</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>302</v>
       </c>
@@ -3586,13 +4330,22 @@
         <v>304</v>
       </c>
       <c r="D75" s="3">
-        <v>74</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+        <v>73</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="G75" s="1">
+        <v>6</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>179</v>
       </c>
@@ -3603,13 +4356,22 @@
         <v>11</v>
       </c>
       <c r="D76" s="3">
-        <v>75</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+        <v>74</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G76" s="1">
+        <v>17</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>51</v>
       </c>
@@ -3620,13 +4382,22 @@
         <v>53</v>
       </c>
       <c r="D77" s="3">
-        <v>76</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+        <v>75</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="G77" s="1">
+        <v>7</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>87</v>
       </c>
@@ -3637,13 +4408,22 @@
         <v>11</v>
       </c>
       <c r="D78" s="3">
-        <v>77</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G78" s="1">
+        <v>18</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>143</v>
       </c>
@@ -3654,13 +4434,22 @@
         <v>11</v>
       </c>
       <c r="D79" s="3">
-        <v>78</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+        <v>77</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G79" s="1">
+        <v>19</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>232</v>
       </c>
@@ -3671,13 +4460,22 @@
         <v>11</v>
       </c>
       <c r="D80" s="3">
-        <v>79</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+        <v>78</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G80" s="1">
+        <v>20</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>19</v>
       </c>
@@ -3688,13 +4486,22 @@
         <v>11</v>
       </c>
       <c r="D81" s="3">
-        <v>80</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G81" s="1">
+        <v>14</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>215</v>
       </c>
@@ -3705,13 +4512,22 @@
         <v>217</v>
       </c>
       <c r="D82" s="3">
-        <v>81</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G82" s="1">
+        <v>21</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>46</v>
       </c>
@@ -3722,13 +4538,22 @@
         <v>48</v>
       </c>
       <c r="D83" s="3">
-        <v>82</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+        <v>81</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G83" s="1">
+        <v>22</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>9</v>
       </c>
@@ -3739,13 +4564,22 @@
         <v>11</v>
       </c>
       <c r="D84" s="3">
-        <v>83</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.45">
+        <v>82</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G84" s="1">
+        <v>23</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>116</v>
       </c>
@@ -3756,13 +4590,22 @@
         <v>118</v>
       </c>
       <c r="D85" s="3">
-        <v>84</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+        <v>83</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G85" s="1">
+        <v>24</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>159</v>
       </c>
@@ -3773,13 +4616,22 @@
         <v>161</v>
       </c>
       <c r="D86" s="3">
-        <v>85</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G86" s="1">
+        <v>15</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>218</v>
       </c>
@@ -3790,13 +4642,22 @@
         <v>220</v>
       </c>
       <c r="D87" s="3">
-        <v>86</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+        <v>85</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G87" s="1">
+        <v>25</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>12</v>
       </c>
@@ -3807,13 +4668,22 @@
         <v>14</v>
       </c>
       <c r="D88" s="3">
-        <v>87</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G88" s="1">
+        <v>25</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>76</v>
       </c>
@@ -3824,13 +4694,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>88</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+        <v>87</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G89" s="1">
+        <v>27</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>174</v>
       </c>
@@ -3841,13 +4720,22 @@
         <v>11</v>
       </c>
       <c r="D90" s="3">
-        <v>89</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.45">
+        <v>88</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G90" s="1">
+        <v>26</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>81</v>
       </c>
@@ -3858,13 +4746,22 @@
         <v>83</v>
       </c>
       <c r="D91" s="3">
-        <v>90</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>89</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G91" s="1">
+        <v>28</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>168</v>
       </c>
@@ -3875,13 +4772,22 @@
         <v>170</v>
       </c>
       <c r="D92" s="3">
-        <v>91</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G92" s="1">
+        <v>27</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>295</v>
       </c>
@@ -3892,13 +4798,22 @@
         <v>297</v>
       </c>
       <c r="D93" s="3">
-        <v>92</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+        <v>91</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G93" s="1">
+        <v>29</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>317</v>
       </c>
@@ -3909,13 +4824,22 @@
         <v>319</v>
       </c>
       <c r="D94" s="3">
-        <v>93</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+        <v>92</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G94" s="1">
+        <v>30</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>329</v>
       </c>
@@ -3926,13 +4850,22 @@
         <v>11</v>
       </c>
       <c r="D95" s="3">
-        <v>94</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.45">
+        <v>93</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G95" s="1">
+        <v>15</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>97</v>
       </c>
@@ -3943,13 +4876,22 @@
         <v>99</v>
       </c>
       <c r="D96" s="3">
-        <v>95</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G96" s="1">
+        <v>16</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>192</v>
       </c>
@@ -3960,13 +4902,22 @@
         <v>194</v>
       </c>
       <c r="D97" s="3">
-        <v>96</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+        <v>95</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G97" s="1">
+        <v>31</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>138</v>
       </c>
@@ -3977,13 +4928,22 @@
         <v>11</v>
       </c>
       <c r="D98" s="3">
-        <v>97</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>96</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G98" s="1">
+        <v>17</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>39</v>
       </c>
@@ -3994,13 +4954,22 @@
         <v>41</v>
       </c>
       <c r="D99" s="3">
-        <v>98</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.45">
+        <v>97</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G99" s="1">
+        <v>28</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>72</v>
       </c>
@@ -4011,13 +4980,22 @@
         <v>11</v>
       </c>
       <c r="D100" s="3">
-        <v>99</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.45">
+        <v>98</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G100" s="1">
+        <v>32</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>308</v>
       </c>
@@ -4028,13 +5006,22 @@
         <v>310</v>
       </c>
       <c r="D101" s="3">
-        <v>100</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+        <v>99</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="G101" s="1">
+        <v>1</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>237</v>
       </c>
@@ -4045,13 +5032,22 @@
         <v>11</v>
       </c>
       <c r="D102" s="3">
-        <v>101</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G102" s="1">
+        <v>29</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>119</v>
       </c>
@@ -4062,13 +5058,22 @@
         <v>11</v>
       </c>
       <c r="D103" s="3">
-        <v>102</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.45">
+        <v>101</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="G103" s="1">
+        <v>2</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>156</v>
       </c>
@@ -4079,13 +5084,22 @@
         <v>158</v>
       </c>
       <c r="D104" s="3">
-        <v>103</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.45">
+        <v>102</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G104" s="1">
+        <v>30</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>284</v>
       </c>
@@ -4096,13 +5110,22 @@
         <v>11</v>
       </c>
       <c r="D105" s="3">
-        <v>104</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>103</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="G105" s="1">
+        <v>3</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>27</v>
       </c>
@@ -4113,13 +5136,22 @@
         <v>11</v>
       </c>
       <c r="D106" s="3">
-        <v>105</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>104</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="G106" s="1">
+        <v>4</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>298</v>
       </c>
@@ -4130,13 +5162,22 @@
         <v>11</v>
       </c>
       <c r="D107" s="3">
-        <v>106</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+        <v>105</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G107" s="1">
+        <v>18</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>244</v>
       </c>
@@ -4147,13 +5188,22 @@
         <v>11</v>
       </c>
       <c r="D108" s="3">
-        <v>107</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.45">
+        <v>106</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G108" s="1">
+        <v>19</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>37</v>
       </c>
@@ -4164,13 +5214,22 @@
         <v>11</v>
       </c>
       <c r="D109" s="3">
-        <v>108</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.45">
+        <v>107</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="G109" s="1">
+        <v>5</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>57</v>
       </c>
@@ -4181,13 +5240,22 @@
         <v>59</v>
       </c>
       <c r="D110" s="3">
-        <v>109</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>108</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="G110" s="1">
+        <v>6</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>176</v>
       </c>
@@ -4198,13 +5266,22 @@
         <v>178</v>
       </c>
       <c r="D111" s="3">
-        <v>110</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G111" s="1">
+        <v>6</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>113</v>
       </c>
@@ -4215,13 +5292,22 @@
         <v>115</v>
       </c>
       <c r="D112" s="3">
-        <v>111</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G112" s="1">
+        <v>7</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>311</v>
       </c>
@@ -4232,13 +5318,22 @@
         <v>313</v>
       </c>
       <c r="D113" s="3">
-        <v>112</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>111</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G113" s="1">
+        <v>8</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>305</v>
       </c>
@@ -4249,13 +5344,22 @@
         <v>307</v>
       </c>
       <c r="D114" s="3">
-        <v>113</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>112</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G114" s="1">
+        <v>31</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>276</v>
       </c>
@@ -4266,13 +5370,22 @@
         <v>278</v>
       </c>
       <c r="D115" s="3">
-        <v>114</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>113</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="G115" s="1">
+        <v>7</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>49</v>
       </c>
@@ -4283,13 +5396,22 @@
         <v>11</v>
       </c>
       <c r="D116" s="3">
-        <v>115</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G116" s="1">
+        <v>20</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>239</v>
       </c>
@@ -4300,13 +5422,22 @@
         <v>241</v>
       </c>
       <c r="D117" s="3">
-        <v>116</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>115</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="G117" s="1">
+        <v>8</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>234</v>
       </c>
@@ -4317,13 +5448,22 @@
         <v>236</v>
       </c>
       <c r="D118" s="3">
-        <v>117</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>116</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="G118" s="1">
+        <v>9</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>89</v>
       </c>
@@ -4334,13 +5474,22 @@
         <v>91</v>
       </c>
       <c r="D119" s="3">
-        <v>118</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.45">
+        <v>117</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="G119" s="1">
+        <v>10</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>134</v>
       </c>
@@ -4351,13 +5500,22 @@
         <v>11</v>
       </c>
       <c r="D120" s="3">
-        <v>119</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>118</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G120" s="1">
+        <v>9</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>32</v>
       </c>
@@ -4368,13 +5526,22 @@
         <v>34</v>
       </c>
       <c r="D121" s="3">
-        <v>120</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="G121" s="1">
+        <v>11</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>320</v>
       </c>
@@ -4385,13 +5552,22 @@
         <v>322</v>
       </c>
       <c r="D122" s="3">
-        <v>121</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G122" s="1">
+        <v>21</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>226</v>
       </c>
@@ -4402,13 +5578,22 @@
         <v>228</v>
       </c>
       <c r="D123" s="3">
-        <v>122</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G123" s="1">
+        <v>10</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>190</v>
       </c>
@@ -4419,13 +5604,22 @@
         <v>11</v>
       </c>
       <c r="D124" s="3">
-        <v>123</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="G124" s="1">
+        <v>12</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>44</v>
       </c>
@@ -4436,13 +5630,22 @@
         <v>11</v>
       </c>
       <c r="D125" s="3">
-        <v>124</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+        <v>123</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="G125" s="1">
+        <v>13</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>224</v>
       </c>
@@ -4453,9 +5656,36 @@
         <v>11</v>
       </c>
       <c r="D126" s="3">
+        <v>124</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="G126" s="1">
+        <v>14</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
+      <c r="D127" s="3">
         <v>125</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="E127" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="G127" s="1">
+        <v>15</v>
+      </c>
+      <c r="H127" s="1" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4470,21 +5700,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771D2FCF-03EA-4C2E-BCB7-15D3321DB186}">
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:H111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="50.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="50.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.59765625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="50.59765625" style="1"/>
-    <col min="4" max="4" width="5.59765625" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="50.59765625" style="1"/>
+    <col min="1" max="1" width="35.5703125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="50.5703125" style="1"/>
+    <col min="4" max="4" width="5.5703125" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="50.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>331</v>
       </c>
@@ -4498,10 +5728,19 @@
         <v>619</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+        <v>634</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>358</v>
       </c>
@@ -4514,11 +5753,20 @@
       <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>348</v>
       </c>
@@ -4531,11 +5779,20 @@
       <c r="D3" s="3">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>100</v>
       </c>
@@ -4548,11 +5805,20 @@
       <c r="D4" s="3">
         <v>3</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4565,11 +5831,20 @@
       <c r="D5" s="3">
         <v>4</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>363</v>
       </c>
@@ -4582,11 +5857,20 @@
       <c r="D6" s="3">
         <v>5</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>350</v>
       </c>
@@ -4599,11 +5883,20 @@
       <c r="D7" s="3">
         <v>6</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="G7" s="1">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>339</v>
       </c>
@@ -4616,11 +5909,20 @@
       <c r="D8" s="3">
         <v>7</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="G8" s="1">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>361</v>
       </c>
@@ -4633,11 +5935,20 @@
       <c r="D9" s="3">
         <v>8</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="G9" s="1">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>353</v>
       </c>
@@ -4650,11 +5961,20 @@
       <c r="D10" s="3">
         <v>9</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="G10" s="1">
+        <v>9</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>336</v>
       </c>
@@ -4667,11 +5987,20 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="G11" s="1">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>345</v>
       </c>
@@ -4684,11 +6013,20 @@
       <c r="D12" s="3">
         <v>11</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="G12" s="1">
+        <v>11</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>334</v>
       </c>
@@ -4701,11 +6039,20 @@
       <c r="D13" s="3">
         <v>12</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="G13" s="1">
+        <v>12</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>84</v>
       </c>
@@ -4718,11 +6065,20 @@
       <c r="D14" s="3">
         <v>13</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="G14" s="1">
+        <v>13</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>326</v>
       </c>
@@ -4735,11 +6091,20 @@
       <c r="D15" s="3">
         <v>14</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="G15" s="1">
+        <v>14</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>343</v>
       </c>
@@ -4752,11 +6117,20 @@
       <c r="D16" s="3">
         <v>15</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="G16" s="1">
+        <v>15</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>269</v>
       </c>
@@ -4769,11 +6143,20 @@
       <c r="D17" s="3">
         <v>16</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="G17" s="1">
+        <v>16</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>373</v>
       </c>
@@ -4786,11 +6169,20 @@
       <c r="D18" s="3">
         <v>17</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="3" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="F18" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>210</v>
       </c>
@@ -4803,11 +6195,20 @@
       <c r="D19" s="3">
         <v>18</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>377</v>
       </c>
@@ -4820,11 +6221,20 @@
       <c r="D20" s="3">
         <v>19</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>379</v>
       </c>
@@ -4837,11 +6247,20 @@
       <c r="D21" s="3">
         <v>20</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G21" s="1">
+        <v>4</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>382</v>
       </c>
@@ -4854,11 +6273,20 @@
       <c r="D22" s="3">
         <v>21</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G22" s="1">
+        <v>5</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>385</v>
       </c>
@@ -4871,11 +6299,20 @@
       <c r="D23" s="3">
         <v>22</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G23" s="1">
+        <v>6</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>388</v>
       </c>
@@ -4888,11 +6325,20 @@
       <c r="D24" s="3">
         <v>23</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G24" s="1">
+        <v>7</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>391</v>
       </c>
@@ -4905,11 +6351,20 @@
       <c r="D25" s="3">
         <v>24</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G25" s="1">
+        <v>8</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>393</v>
       </c>
@@ -4922,11 +6377,20 @@
       <c r="D26" s="3">
         <v>25</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G26" s="1">
+        <v>9</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>396</v>
       </c>
@@ -4939,11 +6403,20 @@
       <c r="D27" s="3">
         <v>26</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G27" s="1">
+        <v>10</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>399</v>
       </c>
@@ -4956,11 +6429,20 @@
       <c r="D28" s="3">
         <v>27</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G28" s="1">
+        <v>11</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>402</v>
       </c>
@@ -4973,11 +6455,20 @@
       <c r="D29" s="3">
         <v>28</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G29" s="1">
+        <v>12</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>404</v>
       </c>
@@ -4990,11 +6481,20 @@
       <c r="D30" s="3">
         <v>29</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G30" s="1">
+        <v>13</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>407</v>
       </c>
@@ -5007,11 +6507,20 @@
       <c r="D31" s="3">
         <v>30</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G31" s="1">
+        <v>14</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>123</v>
       </c>
@@ -5024,11 +6533,20 @@
       <c r="D32" s="3">
         <v>31</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G32" s="1">
+        <v>15</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>412</v>
       </c>
@@ -5041,11 +6559,20 @@
       <c r="D33" s="3">
         <v>32</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G33" s="1">
+        <v>16</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>89</v>
       </c>
@@ -5058,11 +6585,20 @@
       <c r="D34" s="3">
         <v>33</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G34" s="1">
+        <v>17</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>415</v>
       </c>
@@ -5075,11 +6611,20 @@
       <c r="D35" s="3">
         <v>34</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G35" s="1">
+        <v>18</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>417</v>
       </c>
@@ -5092,11 +6637,20 @@
       <c r="D36" s="3">
         <v>35</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G36" s="1">
+        <v>19</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>150</v>
       </c>
@@ -5109,11 +6663,20 @@
       <c r="D37" s="3">
         <v>36</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G37" s="1">
+        <v>20</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>422</v>
       </c>
@@ -5126,11 +6689,20 @@
       <c r="D38" s="3">
         <v>37</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G38" s="1">
+        <v>21</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>425</v>
       </c>
@@ -5143,11 +6715,20 @@
       <c r="D39" s="3">
         <v>38</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G39" s="1">
+        <v>22</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>427</v>
       </c>
@@ -5160,11 +6741,20 @@
       <c r="D40" s="3">
         <v>39</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G40" s="1">
+        <v>23</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="185.25" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>430</v>
       </c>
@@ -5177,11 +6767,20 @@
       <c r="D41" s="3">
         <v>40</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G41" s="1">
+        <v>24</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>266</v>
       </c>
@@ -5194,11 +6793,21 @@
       <c r="D42" s="3">
         <v>41</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="G42" s="1">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>435</v>
       </c>
@@ -5211,11 +6820,20 @@
       <c r="D43" s="3">
         <v>42</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="G43" s="1">
+        <v>2</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>437</v>
       </c>
@@ -5228,11 +6846,20 @@
       <c r="D44" s="3">
         <v>43</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="G44" s="1">
+        <v>3</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>440</v>
       </c>
@@ -5245,11 +6872,20 @@
       <c r="D45" s="3">
         <v>44</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="G45" s="1">
+        <v>4</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>272</v>
       </c>
@@ -5262,11 +6898,20 @@
       <c r="D46" s="3">
         <v>45</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="G46" s="1">
+        <v>5</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>323</v>
       </c>
@@ -5279,11 +6924,21 @@
       <c r="D47" s="3">
         <v>46</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="G47" s="1">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>447</v>
       </c>
@@ -5296,11 +6951,20 @@
       <c r="D48" s="3">
         <v>47</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="G48" s="1">
+        <v>6</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>450</v>
       </c>
@@ -5313,11 +6977,20 @@
       <c r="D49" s="3">
         <v>48</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="G49" s="1">
+        <v>7</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>106</v>
       </c>
@@ -5330,11 +7003,20 @@
       <c r="D50" s="3">
         <v>49</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="G50" s="1">
+        <v>8</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>454</v>
       </c>
@@ -5347,11 +7029,21 @@
       <c r="D51" s="3">
         <v>50</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="3" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="F51" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G51" s="1">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>457</v>
       </c>
@@ -5364,11 +7056,20 @@
       <c r="D52" s="3">
         <v>51</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G52" s="1">
+        <v>2</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>458</v>
       </c>
@@ -5381,11 +7082,20 @@
       <c r="D53" s="3">
         <v>52</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G53" s="1">
+        <v>3</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>165</v>
       </c>
@@ -5398,11 +7108,20 @@
       <c r="D54" s="3">
         <v>53</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G54" s="1">
+        <v>4</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>461</v>
       </c>
@@ -5415,11 +7134,20 @@
       <c r="D55" s="3">
         <v>54</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G55" s="1">
+        <v>5</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>464</v>
       </c>
@@ -5432,11 +7160,20 @@
       <c r="D56" s="3">
         <v>55</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G56" s="1">
+        <v>6</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>467</v>
       </c>
@@ -5449,11 +7186,20 @@
       <c r="D57" s="3">
         <v>56</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G57" s="1">
+        <v>7</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>244</v>
       </c>
@@ -5466,11 +7212,20 @@
       <c r="D58" s="3">
         <v>57</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G58" s="1">
+        <v>8</v>
+      </c>
+      <c r="H58" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>471</v>
       </c>
@@ -5483,11 +7238,20 @@
       <c r="D59" s="3">
         <v>58</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G59" s="1">
+        <v>9</v>
+      </c>
+      <c r="H59" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>473</v>
       </c>
@@ -5500,11 +7264,20 @@
       <c r="D60" s="3">
         <v>59</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G60" s="1">
+        <v>10</v>
+      </c>
+      <c r="H60" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>49</v>
       </c>
@@ -5517,11 +7290,20 @@
       <c r="D61" s="3">
         <v>60</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G61" s="1">
+        <v>11</v>
+      </c>
+      <c r="H61" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>478</v>
       </c>
@@ -5534,11 +7316,20 @@
       <c r="D62" s="3">
         <v>61</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G62" s="1">
+        <v>12</v>
+      </c>
+      <c r="H62" s="1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>226</v>
       </c>
@@ -5551,11 +7342,20 @@
       <c r="D63" s="3">
         <v>62</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G63" s="1">
+        <v>13</v>
+      </c>
+      <c r="H63" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>482</v>
       </c>
@@ -5568,11 +7368,20 @@
       <c r="D64" s="3">
         <v>63</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G64" s="1">
+        <v>14</v>
+      </c>
+      <c r="H64" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>432</v>
       </c>
@@ -5585,11 +7394,20 @@
       <c r="D65" s="3">
         <v>64</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G65" s="1">
+        <v>15</v>
+      </c>
+      <c r="H65" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>486</v>
       </c>
@@ -5602,11 +7420,20 @@
       <c r="D66" s="3">
         <v>65</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G66" s="1">
+        <v>16</v>
+      </c>
+      <c r="H66" s="1" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>489</v>
       </c>
@@ -5619,11 +7446,20 @@
       <c r="D67" s="3">
         <v>66</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G67" s="1">
+        <v>17</v>
+      </c>
+      <c r="H67" s="1" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="185.25" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>491</v>
       </c>
@@ -5636,11 +7472,20 @@
       <c r="D68" s="3">
         <v>67</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G68" s="1">
+        <v>18</v>
+      </c>
+      <c r="H68" s="1" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>493</v>
       </c>
@@ -5653,11 +7498,20 @@
       <c r="D69" s="3">
         <v>68</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G69" s="1">
+        <v>19</v>
+      </c>
+      <c r="H69" s="1" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="142.5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8" ht="165" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>496</v>
       </c>
@@ -5670,11 +7524,20 @@
       <c r="D70" s="3">
         <v>69</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G70" s="1">
+        <v>20</v>
+      </c>
+      <c r="H70" s="1" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>498</v>
       </c>
@@ -5687,11 +7550,20 @@
       <c r="D71" s="3">
         <v>70</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G71" s="1">
+        <v>21</v>
+      </c>
+      <c r="H71" s="1" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>501</v>
       </c>
@@ -5704,11 +7576,20 @@
       <c r="D72" s="3">
         <v>71</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G72" s="1">
+        <v>22</v>
+      </c>
+      <c r="H72" s="1" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>504</v>
       </c>
@@ -5721,11 +7602,20 @@
       <c r="D73" s="3">
         <v>72</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G73" s="1">
+        <v>23</v>
+      </c>
+      <c r="H73" s="1" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>507</v>
       </c>
@@ -5738,11 +7628,20 @@
       <c r="D74" s="3">
         <v>73</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G74" s="1">
+        <v>24</v>
+      </c>
+      <c r="H74" s="1" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>508</v>
       </c>
@@ -5755,11 +7654,20 @@
       <c r="D75" s="3">
         <v>74</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G75" s="1">
+        <v>25</v>
+      </c>
+      <c r="H75" s="1" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>511</v>
       </c>
@@ -5772,11 +7680,20 @@
       <c r="D76" s="3">
         <v>75</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E76" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G76" s="1">
+        <v>26</v>
+      </c>
+      <c r="H76" s="1" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>514</v>
       </c>
@@ -5789,11 +7706,20 @@
       <c r="D77" s="3">
         <v>76</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E77" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G77" s="1">
+        <v>27</v>
+      </c>
+      <c r="H77" s="1" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>516</v>
       </c>
@@ -5806,11 +7732,20 @@
       <c r="D78" s="3">
         <v>77</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E78" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G78" s="1">
+        <v>28</v>
+      </c>
+      <c r="H78" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="228" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8" ht="285" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>6</v>
       </c>
@@ -5823,11 +7758,20 @@
       <c r="D79" s="3">
         <v>78</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E79" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G79" s="1">
+        <v>29</v>
+      </c>
+      <c r="H79" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>234</v>
       </c>
@@ -5840,11 +7784,20 @@
       <c r="D80" s="3">
         <v>79</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E80" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G80" s="1">
+        <v>30</v>
+      </c>
+      <c r="H80" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>520</v>
       </c>
@@ -5857,11 +7810,20 @@
       <c r="D81" s="3">
         <v>80</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G81" s="1">
+        <v>31</v>
+      </c>
+      <c r="H81" s="1" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>523</v>
       </c>
@@ -5874,11 +7836,20 @@
       <c r="D82" s="3">
         <v>81</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G82" s="1">
+        <v>32</v>
+      </c>
+      <c r="H82" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>525</v>
       </c>
@@ -5891,11 +7862,20 @@
       <c r="D83" s="3">
         <v>82</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E83" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="G83" s="1">
+        <v>1</v>
+      </c>
+      <c r="H83" s="1" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>229</v>
       </c>
@@ -5908,11 +7888,20 @@
       <c r="D84" s="3">
         <v>83</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="G84" s="1">
+        <v>2</v>
+      </c>
+      <c r="H84" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>37</v>
       </c>
@@ -5925,11 +7914,20 @@
       <c r="D85" s="3">
         <v>84</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E85" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="G85" s="1">
+        <v>3</v>
+      </c>
+      <c r="H85" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>532</v>
       </c>
@@ -5942,11 +7940,20 @@
       <c r="D86" s="3">
         <v>85</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E86" s="3" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="F86" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G86" s="1">
+        <v>1</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>535</v>
       </c>
@@ -5959,11 +7966,20 @@
       <c r="D87" s="3">
         <v>86</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E87" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G87" s="1">
+        <v>2</v>
+      </c>
+      <c r="H87" s="1" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>538</v>
       </c>
@@ -5976,11 +7992,20 @@
       <c r="D88" s="3">
         <v>87</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E88" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G88" s="1">
+        <v>3</v>
+      </c>
+      <c r="H88" s="1" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="114" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>540</v>
       </c>
@@ -5993,11 +8018,20 @@
       <c r="D89" s="3">
         <v>88</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G89" s="1">
+        <v>4</v>
+      </c>
+      <c r="H89" s="1" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>542</v>
       </c>
@@ -6010,11 +8044,20 @@
       <c r="D90" s="3">
         <v>89</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E90" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G90" s="1">
+        <v>5</v>
+      </c>
+      <c r="H90" s="1" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>545</v>
       </c>
@@ -6027,11 +8070,20 @@
       <c r="D91" s="3">
         <v>90</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G91" s="1">
+        <v>6</v>
+      </c>
+      <c r="H91" s="1" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>547</v>
       </c>
@@ -6044,11 +8096,20 @@
       <c r="D92" s="3">
         <v>91</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E92" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G92" s="1">
+        <v>7</v>
+      </c>
+      <c r="H92" s="1" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>550</v>
       </c>
@@ -6061,11 +8122,20 @@
       <c r="D93" s="3">
         <v>92</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E93" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G93" s="1">
+        <v>8</v>
+      </c>
+      <c r="H93" s="1" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>298</v>
       </c>
@@ -6078,11 +8148,20 @@
       <c r="D94" s="3">
         <v>93</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E94" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G94" s="1">
+        <v>9</v>
+      </c>
+      <c r="H94" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>553</v>
       </c>
@@ -6095,11 +8174,20 @@
       <c r="D95" s="3">
         <v>94</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E95" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G95" s="1">
+        <v>10</v>
+      </c>
+      <c r="H95" s="1" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>555</v>
       </c>
@@ -6112,11 +8200,20 @@
       <c r="D96" s="3">
         <v>95</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E96" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G96" s="1">
+        <v>11</v>
+      </c>
+      <c r="H96" s="1" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>557</v>
       </c>
@@ -6129,11 +8226,20 @@
       <c r="D97" s="3">
         <v>96</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E97" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G97" s="1">
+        <v>12</v>
+      </c>
+      <c r="H97" s="1" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>559</v>
       </c>
@@ -6146,11 +8252,20 @@
       <c r="D98" s="3">
         <v>97</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E98" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G98" s="1">
+        <v>13</v>
+      </c>
+      <c r="H98" s="1" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="114" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>562</v>
       </c>
@@ -6163,11 +8278,20 @@
       <c r="D99" s="3">
         <v>98</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E99" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G99" s="1">
+        <v>14</v>
+      </c>
+      <c r="H99" s="1" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>564</v>
       </c>
@@ -6180,11 +8304,20 @@
       <c r="D100" s="3">
         <v>99</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E100" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G100" s="1">
+        <v>15</v>
+      </c>
+      <c r="H100" s="1" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>566</v>
       </c>
@@ -6197,11 +8330,20 @@
       <c r="D101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E101" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G101" s="1">
+        <v>16</v>
+      </c>
+      <c r="H101" s="1" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>568</v>
       </c>
@@ -6214,11 +8356,20 @@
       <c r="D102" s="3">
         <v>101</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E102" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G102" s="1">
+        <v>17</v>
+      </c>
+      <c r="H102" s="1" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>571</v>
       </c>
@@ -6231,11 +8382,20 @@
       <c r="D103" s="3">
         <v>102</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E103" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G103" s="1">
+        <v>18</v>
+      </c>
+      <c r="H103" s="1" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>574</v>
       </c>
@@ -6248,11 +8408,20 @@
       <c r="D104" s="3">
         <v>103</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E104" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G104" s="1">
+        <v>19</v>
+      </c>
+      <c r="H104" s="1" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>576</v>
       </c>
@@ -6265,11 +8434,20 @@
       <c r="D105" s="3">
         <v>104</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E105" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G105" s="1">
+        <v>20</v>
+      </c>
+      <c r="H105" s="1" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>578</v>
       </c>
@@ -6282,11 +8460,20 @@
       <c r="D106" s="3">
         <v>105</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E106" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G106" s="1">
+        <v>21</v>
+      </c>
+      <c r="H106" s="1" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>581</v>
       </c>
@@ -6299,11 +8486,20 @@
       <c r="D107" s="3">
         <v>106</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="E107" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G107" s="1">
+        <v>22</v>
+      </c>
+      <c r="H107" s="1" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>584</v>
       </c>
@@ -6316,11 +8512,20 @@
       <c r="D108" s="3">
         <v>107</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="E108" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G108" s="1">
+        <v>23</v>
+      </c>
+      <c r="H108" s="1" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>587</v>
       </c>
@@ -6333,11 +8538,20 @@
       <c r="D109" s="3">
         <v>108</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E109" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G109" s="1">
+        <v>24</v>
+      </c>
+      <c r="H109" s="1" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>590</v>
       </c>
@@ -6350,11 +8564,20 @@
       <c r="D110" s="3">
         <v>109</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="E110" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G110" s="1">
+        <v>25</v>
+      </c>
+      <c r="H110" s="1" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>276</v>
       </c>
@@ -6367,7 +8590,16 @@
       <c r="D111" s="3">
         <v>110</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="E111" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G111" s="1">
+        <v>26</v>
+      </c>
+      <c r="H111" s="1" t="s">
         <v>276</v>
       </c>
     </row>

--- a/lookupData/objectives-en.xlsx
+++ b/lookupData/objectives-en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camer\OneDrive\Documents\GitHub\BedrockStatsTracker\lookupData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D56BCF-E9FD-40DF-A266-BB80DA430BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67132EB1-9B7C-4BE5-AA1D-0232A5892C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Achievements" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="640">
-  <si>
-    <t>Achievement</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="637">
   <si>
     <t>In-game description</t>
   </si>
@@ -1888,9 +1885,6 @@
     <t>#</t>
   </si>
   <si>
-    <t>Achievement (Script Variable Title)</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
@@ -1933,12 +1927,6 @@
     <t>Column1</t>
   </si>
   <si>
-    <t>Column2</t>
-  </si>
-  <si>
-    <t>Column3</t>
-  </si>
-  <si>
     <t>Advancement (English Title)</t>
   </si>
   <si>
@@ -1946,6 +1934,9 @@
   </si>
   <si>
     <t>Adeventure2</t>
+  </si>
+  <si>
+    <t>Achievment</t>
   </si>
 </sst>
 </file>
@@ -2013,11 +2004,25 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2050,21 +2055,6 @@
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2079,40 +2069,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4296510E-F1CC-43F9-B169-2E18CC62CD58}" name="Table1" displayName="Table1" ref="A1:H127" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:H127" xr:uid="{4296510E-F1CC-43F9-B169-2E18CC62CD58}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E126">
-    <sortCondition ref="D1:D126"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11298E10-21DD-4EBF-8BF9-EA571BEEC72E}" name="Table1" displayName="Table1" ref="A2:H127" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A2:H127" xr:uid="{11298E10-21DD-4EBF-8BF9-EA571BEEC72E}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{FD94F98D-E627-4DB2-8271-86FB2FDFC960}" name="Achievement" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{D94F8502-F6F5-4D46-A6D6-F44A7DABBD5B}" name="In-game description" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{9D34F8DA-F93F-434D-AC06-421B193577E1}" name="Actual requirements (if different)" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{47E56C60-3F32-4A68-B722-B0BD6CB3BE7D}" name="#" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{A67BA511-7F74-4DBD-8285-EB0B3BDE7174}" name="Achievement (Script Variable Title)" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{B514A823-6E43-41C1-9810-22E47AD08679}" name="Column1" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{31527265-64DE-4638-ADD7-6290E8328B04}" name="Column2" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{432E4361-5423-43FC-A7A1-8C0A3D6EBE61}" name="Column3" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{324771F9-822A-49B7-893D-1DA308D60F66}" name="Achievment" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{B22A3C33-D5FF-489D-81A0-0CD56EF167F6}" name="In-game description" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{3735BB57-B1D2-421D-9276-41B28AD37626}" name="Actual requirements (if different)" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{F9AD4A86-89AB-4252-BDC8-8698B593B077}" name="#" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{36B12DC4-1FAB-47F0-B495-DEEF3597AFFC}" name="Category" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{8DA34B88-F916-4B29-AA18-6228488B3C65}" name="Object" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{132DC9C0-CA6E-4B12-886A-9AB9F8BB67DB}" name="Index" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{ED2AFE63-C022-4969-A969-B12DDDC6F848}" name="Achievement (English Title)" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{54FDD79E-9496-444E-BAAB-2BDD7213F39D}" name="Table2" displayName="Table2" ref="A1:H111" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:H111" xr:uid="{54FDD79E-9496-444E-BAAB-2BDD7213F39D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E111">
-    <sortCondition ref="D1:D111"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{54FDD79E-9496-444E-BAAB-2BDD7213F39D}" name="Table2" displayName="Table2" ref="A2:H112" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A2:H112" xr:uid="{54FDD79E-9496-444E-BAAB-2BDD7213F39D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E112">
+    <sortCondition ref="D2:D112"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{28B57E88-78E1-4471-B423-47178E900D39}" name="Advancement" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{3330A286-8064-4F71-8D6D-082AF5351B16}" name="In-game description" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{C6C9DE83-41CB-42D6-BAFA-5804D4D2C45F}" name="Actual requirements (if different)" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{27AB76C4-3016-4553-A87A-9C1F759A0798}" name="#" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{FF11131C-C5A2-4438-95D7-DCC625EAB401}" name="Column1" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{82ED0A77-34F2-4BBE-A373-52F72CBA1F8D}" name="Object" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{DB75B182-1053-43D2-9CB9-47C7FFF3DEDE}" name="Index" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{81839B7A-887C-4908-8072-601F3ED76542}" name="Advancement (English Title)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{28B57E88-78E1-4471-B423-47178E900D39}" name="Advancement" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{3330A286-8064-4F71-8D6D-082AF5351B16}" name="In-game description" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{C6C9DE83-41CB-42D6-BAFA-5804D4D2C45F}" name="Actual requirements (if different)" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{27AB76C4-3016-4553-A87A-9C1F759A0798}" name="#" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{FF11131C-C5A2-4438-95D7-DCC625EAB401}" name="Column1" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{82ED0A77-34F2-4BBE-A373-52F72CBA1F8D}" name="Object" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{DB75B182-1053-43D2-9CB9-47C7FFF3DEDE}" name="Index" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{81839B7A-887C-4908-8072-601F3ED76542}" name="Advancement (English Title)" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2383,8 +2370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:H127"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2395,3298 +2382,3281 @@
     <col min="5" max="16384" width="50.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>622</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>103</v>
+        <v>249</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>104</v>
+        <v>250</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="D4" s="3">
         <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>289</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>290</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>291</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3">
         <v>3</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>288</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>111</v>
+        <v>289</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>112</v>
+        <v>290</v>
       </c>
       <c r="D6" s="3">
         <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G6" s="1">
         <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>111</v>
       </c>
       <c r="D7" s="3">
         <v>5</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G7" s="1">
         <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>286</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>287</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>288</v>
+        <v>4</v>
       </c>
       <c r="D8" s="3">
         <v>6</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G8" s="1">
         <v>6</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>285</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>286</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>287</v>
       </c>
       <c r="D9" s="3">
         <v>7</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>279</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>280</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>281</v>
+        <v>22</v>
       </c>
       <c r="D10" s="3">
         <v>8</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G10" s="1">
         <v>2</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>100</v>
+        <v>278</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>101</v>
+        <v>279</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>102</v>
+        <v>280</v>
       </c>
       <c r="D11" s="3">
         <v>9</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G11" s="1">
         <v>3</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="D12" s="3">
         <v>10</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G12" s="1">
         <v>7</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>171</v>
+        <v>62</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>172</v>
+        <v>63</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>173</v>
+        <v>64</v>
       </c>
       <c r="D13" s="3">
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G13" s="1">
         <v>4</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>292</v>
+        <v>170</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>293</v>
+        <v>171</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>294</v>
+        <v>172</v>
       </c>
       <c r="D14" s="3">
         <v>12</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>165</v>
+        <v>291</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>166</v>
+        <v>292</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>167</v>
+        <v>293</v>
       </c>
       <c r="D15" s="3">
         <v>13</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G15" s="1">
         <v>8</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>61</v>
+        <v>165</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>62</v>
+        <v>166</v>
       </c>
       <c r="D16" s="3">
         <v>14</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G16" s="1">
         <v>2</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>314</v>
+        <v>59</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>315</v>
+        <v>60</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>316</v>
+        <v>61</v>
       </c>
       <c r="D17" s="3">
         <v>15</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G17" s="1">
         <v>5</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>229</v>
+        <v>313</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>230</v>
+        <v>314</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="D18" s="3">
         <v>16</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G18" s="1">
         <v>3</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>69</v>
+        <v>228</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>70</v>
+        <v>229</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>71</v>
+        <v>230</v>
       </c>
       <c r="D19" s="3">
         <v>17</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G19" s="1">
         <v>4</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>126</v>
+        <v>68</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="D20" s="3">
         <v>18</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G20" s="1">
         <v>9</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>210</v>
+        <v>125</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>211</v>
+        <v>126</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>212</v>
+        <v>127</v>
       </c>
       <c r="D21" s="3">
         <v>19</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>123</v>
+        <v>209</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>124</v>
+        <v>210</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>125</v>
+        <v>211</v>
       </c>
       <c r="D22" s="3">
         <v>20</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G22" s="1">
         <v>2</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="D23" s="3">
         <v>21</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G23" s="1">
         <v>3</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>269</v>
+        <v>149</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>271</v>
+        <v>151</v>
       </c>
       <c r="D24" s="3">
         <v>22</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G24" s="1">
         <v>4</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D25" s="3">
         <v>23</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G25" s="1">
         <v>1</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>84</v>
+        <v>265</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>85</v>
+        <v>266</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>86</v>
+        <v>267</v>
       </c>
       <c r="D26" s="3">
         <v>24</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G26" s="1">
         <v>2</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>181</v>
+        <v>83</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>182</v>
+        <v>84</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>183</v>
+        <v>85</v>
       </c>
       <c r="D27" s="3">
         <v>25</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G27" s="1">
         <v>10</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="D28" s="3">
         <v>26</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G28" s="1">
         <v>5</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>7</v>
+        <v>145</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>8</v>
+        <v>146</v>
       </c>
       <c r="D29" s="3">
         <v>27</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G29" s="1">
         <v>6</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>258</v>
+        <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>259</v>
+        <v>6</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>260</v>
+        <v>7</v>
       </c>
       <c r="D30" s="3">
         <v>28</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G30" s="1">
         <v>7</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D31" s="3">
         <v>29</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G31" s="1">
         <v>8</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D32" s="3">
         <v>30</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G32" s="1">
         <v>9</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>207</v>
+        <v>254</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>208</v>
+        <v>255</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>209</v>
+        <v>256</v>
       </c>
       <c r="D33" s="3">
         <v>31</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G33" s="1">
         <v>10</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>66</v>
+        <v>206</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>67</v>
+        <v>207</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="D34" s="3">
         <v>32</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G34" s="1">
         <v>4</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>184</v>
+        <v>65</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>185</v>
+        <v>66</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>186</v>
+        <v>67</v>
       </c>
       <c r="D35" s="3">
         <v>33</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G35" s="1">
         <v>11</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="D36" s="3">
         <v>34</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G36" s="1">
         <v>12</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="D37" s="3">
         <v>35</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G37" s="1">
         <v>13</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="D38" s="3">
         <v>36</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G38" s="1">
         <v>14</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>195</v>
+        <v>139</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="D39" s="3">
         <v>37</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G39" s="1">
         <v>5</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="D40" s="3">
         <v>38</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G40" s="1">
         <v>6</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>274</v>
+        <v>186</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>275</v>
+        <v>187</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>11</v>
+        <v>188</v>
       </c>
       <c r="D41" s="3">
         <v>39</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G41" s="1">
         <v>8</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>197</v>
+        <v>273</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>198</v>
+        <v>274</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D42" s="3">
         <v>40</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G42" s="1">
         <v>15</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D43" s="3">
         <v>41</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G43" s="1">
         <v>16</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="D44" s="3">
         <v>42</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G44" s="1">
         <v>17</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="D45" s="3">
         <v>43</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G45" s="1">
         <v>9</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>203</v>
+        <v>10</v>
       </c>
       <c r="D46" s="3">
         <v>44</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G46" s="1">
         <v>6</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>11</v>
+        <v>202</v>
       </c>
       <c r="D47" s="3">
         <v>45</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G47" s="1">
         <v>7</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>241</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>55</v>
+        <v>242</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="D48" s="3">
         <v>46</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G48" s="1">
         <v>10</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>204</v>
+        <v>53</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>205</v>
+        <v>54</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>206</v>
+        <v>55</v>
       </c>
       <c r="D49" s="3">
         <v>47</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G49" s="1">
         <v>18</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>35</v>
+        <v>203</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>36</v>
+        <v>204</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>11</v>
+        <v>205</v>
       </c>
       <c r="D50" s="3">
         <v>48</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G50" s="1">
         <v>19</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D51" s="3">
         <v>49</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G51" s="1">
         <v>8</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>326</v>
+        <v>131</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>327</v>
+        <v>132</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>328</v>
+        <v>10</v>
       </c>
       <c r="D52" s="3">
         <v>50</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G52" s="1">
         <v>20</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>148</v>
+        <v>325</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>149</v>
+        <v>326</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>11</v>
+        <v>327</v>
       </c>
       <c r="D53" s="3">
         <v>51</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G53" s="1">
         <v>9</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D54" s="3">
         <v>52</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G54" s="1">
         <v>10</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>282</v>
+        <v>14</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>283</v>
+        <v>15</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D55" s="3">
         <v>53</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G55" s="1">
         <v>11</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D56" s="3">
         <v>54</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G56" s="1">
         <v>21</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>42</v>
+        <v>299</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>43</v>
+        <v>300</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D57" s="3">
         <v>55</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G57" s="1">
         <v>12</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>154</v>
+        <v>42</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="D58" s="3">
         <v>56</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G58" s="1">
         <v>13</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>11</v>
+        <v>154</v>
       </c>
       <c r="D59" s="3">
         <v>57</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G59" s="1">
         <v>22</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>221</v>
+        <v>94</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>222</v>
+        <v>95</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>223</v>
+        <v>10</v>
       </c>
       <c r="D60" s="3">
         <v>58</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G60" s="1">
         <v>23</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="D61" s="3">
         <v>59</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G61" s="1">
         <v>24</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>121</v>
+        <v>251</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>122</v>
+        <v>252</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>11</v>
+        <v>253</v>
       </c>
       <c r="D62" s="3">
         <v>60</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G62" s="1">
         <v>14</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>213</v>
+        <v>120</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>214</v>
+        <v>121</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D63" s="3">
         <v>61</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G63" s="1">
         <v>24</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>17</v>
+        <v>212</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>18</v>
+        <v>213</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D64" s="3">
         <v>62</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G64" s="1">
         <v>11</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="D65" s="3">
         <v>63</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G65" s="1">
         <v>12</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>199</v>
+        <v>91</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>200</v>
+        <v>92</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="D66" s="3">
         <v>64</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G66" s="1">
         <v>15</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>264</v>
+        <v>198</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>265</v>
+        <v>199</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D67" s="3">
         <v>65</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G67" s="1">
         <v>13</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D68" s="3">
         <v>66</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G68" s="1">
         <v>16</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>246</v>
+        <v>78</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>247</v>
+        <v>79</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D69" s="3">
         <v>67</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G69" s="1">
         <v>25</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>323</v>
+        <v>245</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>324</v>
+        <v>246</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>325</v>
+        <v>10</v>
       </c>
       <c r="D70" s="3">
         <v>68</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G70" s="1">
         <v>26</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>24</v>
+        <v>322</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>25</v>
+        <v>323</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>26</v>
+        <v>324</v>
       </c>
       <c r="D71" s="3">
         <v>69</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G71" s="1">
         <v>3</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>272</v>
+        <v>23</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>273</v>
+        <v>24</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D72" s="3">
         <v>70</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G72" s="1">
         <v>11</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>106</v>
+        <v>271</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>107</v>
+        <v>272</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D73" s="3">
         <v>71</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G73" s="1">
         <v>4</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>248</v>
+        <v>105</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>249</v>
+        <v>106</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D74" s="3">
         <v>72</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G74" s="1">
         <v>5</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>302</v>
+        <v>247</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>303</v>
+        <v>248</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>304</v>
+        <v>10</v>
       </c>
       <c r="D75" s="3">
         <v>73</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G75" s="1">
         <v>6</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>179</v>
+        <v>301</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>180</v>
+        <v>302</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>11</v>
+        <v>303</v>
       </c>
       <c r="D76" s="3">
         <v>74</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G76" s="1">
         <v>17</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>52</v>
+        <v>179</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="D77" s="3">
         <v>75</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G77" s="1">
         <v>7</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="D78" s="3">
         <v>76</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G78" s="1">
         <v>18</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D79" s="3">
         <v>77</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G79" s="1">
         <v>19</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>232</v>
+        <v>142</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>233</v>
+        <v>143</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D80" s="3">
         <v>78</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G80" s="1">
         <v>20</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>19</v>
+        <v>231</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>20</v>
+        <v>232</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D81" s="3">
         <v>79</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G81" s="1">
         <v>14</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>215</v>
+        <v>18</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>216</v>
+        <v>19</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>217</v>
+        <v>10</v>
       </c>
       <c r="D82" s="3">
         <v>80</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G82" s="1">
         <v>21</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>46</v>
+        <v>214</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>47</v>
+        <v>215</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>48</v>
+        <v>216</v>
       </c>
       <c r="D83" s="3">
         <v>81</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G83" s="1">
         <v>22</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D84" s="3">
         <v>82</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G84" s="1">
         <v>23</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>116</v>
+        <v>8</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="D85" s="3">
         <v>83</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G85" s="1">
         <v>24</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>159</v>
+        <v>115</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="D86" s="3">
         <v>84</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G86" s="1">
         <v>15</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>218</v>
+        <v>158</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>219</v>
+        <v>159</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="D87" s="3">
         <v>85</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G87" s="1">
         <v>25</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>13</v>
+        <v>218</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>14</v>
+        <v>219</v>
       </c>
       <c r="D88" s="3">
         <v>86</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G88" s="1">
         <v>25</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="D89" s="3">
         <v>87</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G89" s="1">
         <v>27</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="D90" s="3">
         <v>88</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G90" s="1">
         <v>26</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="D91" s="3">
         <v>89</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G91" s="1">
         <v>28</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="D92" s="3">
         <v>90</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G92" s="1">
         <v>27</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>295</v>
+        <v>167</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>296</v>
+        <v>168</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>297</v>
+        <v>169</v>
       </c>
       <c r="D93" s="3">
         <v>91</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G93" s="1">
         <v>29</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="D94" s="3">
         <v>92</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G94" s="1">
         <v>30</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>11</v>
+        <v>318</v>
       </c>
       <c r="D95" s="3">
         <v>93</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G95" s="1">
         <v>15</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>328</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>98</v>
+        <v>329</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D96" s="3">
         <v>94</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G96" s="1">
         <v>16</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>193</v>
+        <v>97</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>194</v>
+        <v>98</v>
       </c>
       <c r="D97" s="3">
         <v>95</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G97" s="1">
         <v>31</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="D98" s="3">
         <v>96</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G98" s="1">
         <v>17</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="D99" s="3">
         <v>97</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G99" s="1">
         <v>28</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D100" s="3">
         <v>98</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G100" s="1">
         <v>32</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>308</v>
+        <v>71</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>309</v>
+        <v>72</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>310</v>
+        <v>10</v>
       </c>
       <c r="D101" s="3">
         <v>99</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G101" s="1">
         <v>1</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>237</v>
+        <v>307</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>238</v>
+        <v>308</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>11</v>
+        <v>309</v>
       </c>
       <c r="D102" s="3">
         <v>100</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G102" s="1">
         <v>29</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>119</v>
+        <v>236</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>120</v>
+        <v>237</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D103" s="3">
         <v>101</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G103" s="1">
         <v>2</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="D104" s="3">
         <v>102</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G104" s="1">
         <v>30</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>284</v>
+        <v>155</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>285</v>
+        <v>156</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="D105" s="3">
         <v>103</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G105" s="1">
         <v>3</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>27</v>
+        <v>283</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>28</v>
+        <v>284</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D106" s="3">
         <v>104</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G106" s="1">
         <v>4</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>298</v>
+        <v>26</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>299</v>
+        <v>27</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D107" s="3">
         <v>105</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G107" s="1">
         <v>18</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>244</v>
+        <v>297</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>245</v>
+        <v>298</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D108" s="3">
         <v>106</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G108" s="1">
         <v>19</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>37</v>
+        <v>243</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>38</v>
+        <v>244</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D109" s="3">
         <v>107</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G109" s="1">
         <v>5</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="D110" s="3">
         <v>108</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G110" s="1">
         <v>6</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>176</v>
+        <v>56</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>177</v>
+        <v>57</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>178</v>
+        <v>58</v>
       </c>
       <c r="D111" s="3">
         <v>109</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G111" s="1">
         <v>6</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>114</v>
+        <v>176</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="D112" s="3">
         <v>110</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G112" s="1">
         <v>7</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>311</v>
+        <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>312</v>
+        <v>113</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>313</v>
+        <v>114</v>
       </c>
       <c r="D113" s="3">
         <v>111</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G113" s="1">
         <v>8</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D114" s="3">
         <v>112</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G114" s="1">
         <v>31</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="D115" s="3">
         <v>113</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G115" s="1">
         <v>7</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>49</v>
+        <v>275</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>50</v>
+        <v>276</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>11</v>
+        <v>277</v>
       </c>
       <c r="D116" s="3">
         <v>114</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G116" s="1">
         <v>20</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>239</v>
+        <v>48</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>240</v>
+        <v>49</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>241</v>
+        <v>10</v>
       </c>
       <c r="D117" s="3">
         <v>115</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G117" s="1">
         <v>8</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D118" s="3">
         <v>116</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G118" s="1">
         <v>9</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>89</v>
+        <v>233</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>90</v>
+        <v>234</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>91</v>
+        <v>235</v>
       </c>
       <c r="D119" s="3">
         <v>117</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G119" s="1">
         <v>10</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="D120" s="3">
         <v>118</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G120" s="1">
         <v>9</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D121" s="3">
         <v>119</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G121" s="1">
         <v>11</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>320</v>
+        <v>31</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>321</v>
+        <v>32</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="D122" s="3">
         <v>120</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G122" s="1">
         <v>21</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>226</v>
+        <v>319</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>227</v>
+        <v>320</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>228</v>
+        <v>321</v>
       </c>
       <c r="D123" s="3">
         <v>121</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G123" s="1">
         <v>10</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>11</v>
+        <v>227</v>
       </c>
       <c r="D124" s="3">
         <v>122</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G124" s="1">
         <v>12</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D125" s="3">
         <v>123</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G125" s="1">
         <v>13</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>224</v>
+        <v>43</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>225</v>
+        <v>44</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D126" s="3">
         <v>124</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G126" s="1">
         <v>14</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D127" s="3">
         <v>125</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="G127" s="1">
         <v>15</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -5700,2907 +5670,2911 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771D2FCF-03EA-4C2E-BCB7-15D3321DB186}">
-  <dimension ref="A1:H111"/>
+  <dimension ref="A2:H112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:H111"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" style="2" customWidth="1"/>
-    <col min="2" max="3" width="50.5703125" style="1"/>
+    <col min="1" max="1" width="31.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.5703125" style="1"/>
     <col min="4" max="4" width="5.5703125" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="50.5703125" style="1"/>
+    <col min="5" max="5" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="50.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="D4" s="3">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="E4" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="G4" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D4" s="3">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="G4" s="1">
-        <v>3</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D5" s="3">
-        <v>4</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>3</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>363</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>366</v>
+        <v>331</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="D6" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>363</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="D7" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D8" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D9" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="D10" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="D11" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="D12" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D13" s="3">
+        <v>11</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="G13" s="1">
+        <v>11</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C14" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D14" s="3">
         <v>12</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="G13" s="1">
+      <c r="E14" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="G14" s="1">
         <v>12</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="H14" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="D15" s="3">
         <v>13</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="E15" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="G15" s="1">
         <v>13</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="H15" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="D16" s="3">
         <v>14</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="G15" s="1">
+      <c r="E16" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="G16" s="1">
         <v>14</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D16" s="3">
-        <v>15</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="G16" s="1">
-        <v>15</v>
-      </c>
       <c r="H16" s="1" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>269</v>
+        <v>342</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>368</v>
+        <v>343</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="D17" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>269</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D18" s="3">
+        <v>16</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="G18" s="1">
+        <v>16</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D19" s="3">
+        <v>17</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D18" s="3">
-        <v>17</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="D20" s="3">
         <v>18</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="G19" s="1">
+      <c r="E20" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="G20" s="1">
         <v>2</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="3">
-        <v>19</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="G20" s="1">
-        <v>3</v>
-      </c>
       <c r="H20" s="1" t="s">
-        <v>377</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="3">
+        <v>19</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D22" s="3">
+        <v>20</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="G22" s="1">
+        <v>4</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="D21" s="3">
-        <v>20</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="G21" s="1">
-        <v>4</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="D23" s="3">
         <v>21</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="G22" s="1">
+      <c r="E23" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="G23" s="1">
         <v>5</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="D23" s="3">
-        <v>22</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="G23" s="1">
-        <v>6</v>
-      </c>
       <c r="H23" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D24" s="3">
+        <v>22</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="G24" s="1">
+        <v>6</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D25" s="3">
+        <v>23</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="G25" s="1">
+        <v>7</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="D24" s="3">
-        <v>23</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="G24" s="1">
-        <v>7</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D26" s="3">
+        <v>24</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="G26" s="1">
+        <v>8</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="D25" s="3">
-        <v>24</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="G25" s="1">
-        <v>8</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="D27" s="3">
         <v>25</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="G26" s="1">
+      <c r="E27" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="G27" s="1">
         <v>9</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="D27" s="3">
-        <v>26</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="G27" s="1">
-        <v>10</v>
-      </c>
       <c r="H27" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D28" s="3">
+        <v>26</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="G28" s="1">
+        <v>10</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="D29" s="3">
         <v>27</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="G28" s="1">
+      <c r="E29" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="G29" s="1">
         <v>11</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="3">
-        <v>28</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="G29" s="1">
-        <v>12</v>
-      </c>
       <c r="H29" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>406</v>
+        <v>10</v>
       </c>
       <c r="D30" s="3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G30" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D31" s="3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G31" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>123</v>
+        <v>406</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D32" s="3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G32" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>123</v>
+        <v>406</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D33" s="3">
+        <v>31</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="G33" s="1">
+        <v>15</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="3">
+        <v>32</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="G34" s="1">
+        <v>16</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="3">
-        <v>32</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="F33" s="1" t="s">
+      <c r="C35" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D35" s="3">
+        <v>33</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="G35" s="1">
+        <v>17</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D36" s="3">
+        <v>34</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="G36" s="1">
+        <v>18</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D37" s="3">
+        <v>35</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="G37" s="1">
+        <v>19</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D38" s="3">
+        <v>36</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="G38" s="1">
+        <v>20</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D39" s="3">
+        <v>37</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="G39" s="1">
+        <v>21</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="D40" s="3">
+        <v>38</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="G40" s="1">
+        <v>22</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D41" s="3">
+        <v>39</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="G41" s="1">
+        <v>23</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="D42" s="3">
+        <v>40</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="G42" s="1">
+        <v>24</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D43" s="3">
+        <v>41</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="G33" s="1">
-        <v>16</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="D34" s="3">
-        <v>33</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="G34" s="1">
-        <v>17</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="D35" s="3">
-        <v>34</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="G35" s="1">
-        <v>18</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="D36" s="3">
-        <v>35</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="G36" s="1">
-        <v>19</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="D37" s="3">
-        <v>36</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="G37" s="1">
-        <v>20</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="D38" s="3">
-        <v>37</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="G38" s="1">
-        <v>21</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="D39" s="3">
-        <v>38</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="G39" s="1">
-        <v>22</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="D40" s="3">
-        <v>39</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="G40" s="1">
-        <v>23</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="225" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="D41" s="3">
-        <v>40</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="G41" s="1">
-        <v>24</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="D42" s="3">
-        <v>41</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="G42" s="1">
+      <c r="G43" s="1">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="H43" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C44" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="D44" s="3">
+        <v>42</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G44" s="1">
+        <v>2</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="D43" s="3">
-        <v>42</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="G43" s="1">
-        <v>2</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D45" s="3">
+        <v>43</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G45" s="1">
+        <v>3</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="D44" s="3">
-        <v>43</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="G44" s="1">
-        <v>3</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D46" s="3">
+        <v>44</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G46" s="1">
+        <v>4</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D45" s="3">
-        <v>44</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="G45" s="1">
-        <v>4</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B46" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D47" s="3">
+        <v>45</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G47" s="1">
+        <v>5</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="D46" s="3">
-        <v>45</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="G46" s="1">
-        <v>5</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D47" s="3">
+      <c r="D48" s="3">
         <v>46</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="G47" s="1">
+      <c r="E48" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G48" s="1">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="D48" s="3">
-        <v>47</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="G48" s="1">
-        <v>6</v>
-      </c>
       <c r="H48" s="1" t="s">
-        <v>447</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D49" s="3">
+        <v>47</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G49" s="1">
+        <v>6</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D50" s="3">
+        <v>48</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G50" s="1">
+        <v>7</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="D49" s="3">
-        <v>48</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="G49" s="1">
-        <v>7</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="D51" s="3">
+        <v>49</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G51" s="1">
+        <v>8</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D50" s="3">
-        <v>49</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="G50" s="1">
-        <v>8</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D51" s="3">
+      <c r="D52" s="3">
         <v>50</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="G51" s="1">
+      <c r="E52" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G52" s="1">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="H52" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="D53" s="3">
+        <v>51</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G53" s="1">
+        <v>2</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D52" s="3">
-        <v>51</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="G52" s="1">
-        <v>2</v>
-      </c>
-      <c r="H52" s="1" t="s">
+      <c r="B54" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="3">
+        <v>52</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G54" s="1">
+        <v>3</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="B53" s="1" t="s">
+    <row r="55" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="3">
-        <v>52</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="G53" s="1">
-        <v>3</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="165" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B54" s="1" t="s">
+      <c r="C55" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D55" s="3">
+        <v>53</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G55" s="1">
+        <v>4</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="D54" s="3">
-        <v>53</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="G54" s="1">
-        <v>4</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D56" s="3">
+        <v>54</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G56" s="1">
+        <v>5</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="D55" s="3">
-        <v>54</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="G55" s="1">
-        <v>5</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="D56" s="3">
+      <c r="D57" s="3">
         <v>55</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="G56" s="1">
+      <c r="E57" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G57" s="1">
         <v>6</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="3">
-        <v>56</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="G57" s="1">
-        <v>7</v>
-      </c>
       <c r="H57" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>244</v>
+        <v>466</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>470</v>
+        <v>10</v>
       </c>
       <c r="D58" s="3">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G58" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>244</v>
+        <v>466</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D59" s="3">
+        <v>57</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G59" s="1">
+        <v>8</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="3">
+        <v>58</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G60" s="1">
+        <v>9</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="B61" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D61" s="3">
+        <v>59</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G61" s="1">
+        <v>10</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D62" s="3">
+        <v>60</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G62" s="1">
         <v>11</v>
       </c>
-      <c r="D59" s="3">
-        <v>58</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="G59" s="1">
-        <v>9</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="D60" s="3">
-        <v>59</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="G60" s="1">
+      <c r="H62" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H60" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="D63" s="3">
+        <v>61</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G63" s="1">
+        <v>12</v>
+      </c>
+      <c r="H63" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D61" s="3">
-        <v>60</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="G61" s="1">
-        <v>11</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B62" s="1" t="s">
+    </row>
+    <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="3">
-        <v>61</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="G62" s="1">
-        <v>12</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B63" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D64" s="3">
+        <v>62</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G64" s="1">
+        <v>13</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="D63" s="3">
-        <v>62</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="G63" s="1">
-        <v>13</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D65" s="3">
+        <v>63</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G65" s="1">
+        <v>14</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="D64" s="3">
-        <v>63</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="G64" s="1">
-        <v>14</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="D65" s="3">
+      <c r="C66" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D66" s="3">
         <v>64</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="G65" s="1">
+      <c r="E66" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G66" s="1">
         <v>15</v>
       </c>
-      <c r="H65" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="D66" s="3">
-        <v>65</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="G66" s="1">
-        <v>16</v>
-      </c>
       <c r="H66" s="1" t="s">
-        <v>486</v>
+        <v>431</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D67" s="3">
+        <v>65</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G67" s="1">
+        <v>16</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="C67" s="1" t="s">
+      <c r="D68" s="3">
+        <v>66</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G68" s="1">
+        <v>17</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="D67" s="3">
-        <v>66</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="G67" s="1">
-        <v>17</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="225" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C69" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D69" s="3">
+        <v>67</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G69" s="1">
+        <v>18</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="B70" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D70" s="3">
+        <v>68</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G70" s="1">
+        <v>19</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="D68" s="3">
-        <v>67</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="G68" s="1">
-        <v>18</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="C69" s="1" t="s">
+      <c r="D71" s="3">
+        <v>69</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G71" s="1">
+        <v>20</v>
+      </c>
+      <c r="H71" s="1" t="s">
         <v>495</v>
-      </c>
-      <c r="D69" s="3">
-        <v>68</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="G69" s="1">
-        <v>19</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="165" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="D70" s="3">
-        <v>69</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="G70" s="1">
-        <v>20</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="D71" s="3">
-        <v>70</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="G71" s="1">
-        <v>21</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D72" s="3">
+        <v>70</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G72" s="1">
+        <v>21</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="D72" s="3">
+      <c r="D73" s="3">
         <v>71</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="G72" s="1">
+      <c r="E73" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G73" s="1">
         <v>22</v>
       </c>
-      <c r="H72" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="D73" s="3">
-        <v>72</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="G73" s="1">
-        <v>23</v>
-      </c>
       <c r="H73" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>225</v>
+        <v>504</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>11</v>
+        <v>505</v>
       </c>
       <c r="D74" s="3">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G74" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="3">
+        <v>73</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G75" s="1">
+        <v>24</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D76" s="3">
+        <v>74</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G76" s="1">
+        <v>25</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="D75" s="3">
-        <v>74</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="G75" s="1">
-        <v>25</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D77" s="3">
+        <v>75</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G77" s="1">
+        <v>26</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="D76" s="3">
-        <v>75</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="G76" s="1">
-        <v>26</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C78" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D78" s="3">
+        <v>76</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G78" s="1">
+        <v>27</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D77" s="3">
-        <v>76</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="G77" s="1">
-        <v>27</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="B79" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="3">
+        <v>77</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G79" s="1">
+        <v>28</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="285" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" s="3">
-        <v>77</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="G78" s="1">
-        <v>28</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="285" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B79" s="1" t="s">
+      <c r="C80" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="D80" s="3">
+        <v>78</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G80" s="1">
+        <v>29</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="D79" s="3">
-        <v>78</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="G79" s="1">
-        <v>29</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B80" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="D80" s="3">
+      <c r="D81" s="3">
         <v>79</v>
       </c>
-      <c r="E80" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="G80" s="1">
+      <c r="E81" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G81" s="1">
         <v>30</v>
       </c>
-      <c r="H80" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="D81" s="3">
-        <v>80</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="G81" s="1">
-        <v>31</v>
-      </c>
       <c r="H81" s="1" t="s">
-        <v>520</v>
+        <v>233</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D82" s="3">
+        <v>80</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G82" s="1">
+        <v>31</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C83" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" s="3">
+        <v>81</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="G83" s="1">
+        <v>32</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D82" s="3">
-        <v>81</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="G82" s="1">
-        <v>32</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="D83" s="3">
+      <c r="D84" s="3">
         <v>82</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="G83" s="1">
+      <c r="E84" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="G84" s="1">
         <v>1</v>
       </c>
-      <c r="H83" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="D84" s="3">
-        <v>83</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="G84" s="1">
-        <v>2</v>
-      </c>
       <c r="H84" s="1" t="s">
-        <v>229</v>
+        <v>524</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>37</v>
+        <v>228</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D85" s="3">
+        <v>83</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="G85" s="1">
+        <v>2</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="D86" s="3">
+        <v>84</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="G86" s="1">
+        <v>3</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="D85" s="3">
-        <v>84</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="G85" s="1">
+      <c r="B87" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D87" s="3">
+        <v>85</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="G87" s="1">
+        <v>1</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D88" s="3">
+        <v>86</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="G88" s="1">
+        <v>2</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="D89" s="3">
+        <v>87</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="G89" s="1">
         <v>3</v>
       </c>
-      <c r="H85" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="D86" s="3">
-        <v>85</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="G86" s="1">
-        <v>1</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="C87" s="1" t="s">
+      <c r="H89" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="D87" s="3">
-        <v>86</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="G87" s="1">
-        <v>2</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="B88" s="1" t="s">
+    </row>
+    <row r="90" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="B90" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D90" s="3">
+        <v>88</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="G90" s="1">
+        <v>4</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D91" s="3">
+        <v>89</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="G91" s="1">
+        <v>5</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="D88" s="3">
-        <v>87</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="G88" s="1">
-        <v>3</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="D89" s="3">
-        <v>88</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="G89" s="1">
-        <v>4</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="C90" s="1" t="s">
+      <c r="D92" s="3">
+        <v>90</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="G92" s="1">
+        <v>6</v>
+      </c>
+      <c r="H92" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="D90" s="3">
-        <v>89</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="G90" s="1">
-        <v>5</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="B91" s="1" t="s">
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="B93" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D93" s="3">
+        <v>91</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="G93" s="1">
+        <v>7</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="D91" s="3">
-        <v>90</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="G91" s="1">
-        <v>6</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="C92" s="1" t="s">
+      <c r="D94" s="3">
+        <v>92</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="G94" s="1">
+        <v>8</v>
+      </c>
+      <c r="H94" s="1" t="s">
         <v>549</v>
-      </c>
-      <c r="D92" s="3">
-        <v>91</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="G92" s="1">
-        <v>7</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="D93" s="3">
-        <v>92</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="G93" s="1">
-        <v>8</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D94" s="3">
-        <v>93</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="G94" s="1">
-        <v>9</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="3">
+        <v>93</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="G95" s="1">
+        <v>9</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D95" s="3">
+      <c r="C96" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" s="3">
         <v>94</v>
       </c>
-      <c r="E95" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="G95" s="1">
+      <c r="E96" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="G96" s="1">
         <v>10</v>
       </c>
-      <c r="H95" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="D96" s="3">
-        <v>95</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="G96" s="1">
-        <v>11</v>
-      </c>
       <c r="H96" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="D97" s="3">
+        <v>95</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="G97" s="1">
+        <v>11</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="C98" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="D98" s="3">
+        <v>96</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="G98" s="1">
+        <v>12</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="B99" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D99" s="3">
+        <v>97</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="G99" s="1">
+        <v>13</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="D97" s="3">
-        <v>96</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="G97" s="1">
-        <v>12</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="C98" s="1" t="s">
+      <c r="D100" s="3">
+        <v>98</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="G100" s="1">
+        <v>14</v>
+      </c>
+      <c r="H100" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="D98" s="3">
-        <v>97</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="G98" s="1">
-        <v>13</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="B99" s="1" t="s">
+    </row>
+    <row r="101" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="B101" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="D99" s="3">
-        <v>98</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="G99" s="1">
-        <v>14</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="B100" s="1" t="s">
+      <c r="D101" s="3">
+        <v>99</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="G101" s="1">
+        <v>15</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="B102" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="D100" s="3">
-        <v>99</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="G100" s="1">
-        <v>15</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="B101" s="1" t="s">
+      <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="G102" s="1">
+        <v>16</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="B103" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D103" s="3">
+        <v>101</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="G103" s="1">
+        <v>17</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D104" s="3">
+        <v>102</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="G104" s="1">
+        <v>18</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="D101" s="3">
-        <v>100</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="G101" s="1">
-        <v>16</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D102" s="3">
-        <v>101</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="G102" s="1">
-        <v>17</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="C103" s="1" t="s">
+      <c r="D105" s="3">
+        <v>103</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="G105" s="1">
+        <v>19</v>
+      </c>
+      <c r="H105" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="D103" s="3">
-        <v>102</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="G103" s="1">
-        <v>18</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="B104" s="1" t="s">
+    </row>
+    <row r="106" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="B106" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="D104" s="3">
-        <v>103</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="G104" s="1">
-        <v>19</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="195" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="B105" s="1" t="s">
+      <c r="D106" s="3">
+        <v>104</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="G106" s="1">
+        <v>20</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="D105" s="3">
-        <v>104</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="G105" s="1">
-        <v>20</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="D106" s="3">
+      <c r="D107" s="3">
         <v>105</v>
       </c>
-      <c r="E106" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="G106" s="1">
+      <c r="E107" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="G107" s="1">
         <v>21</v>
       </c>
-      <c r="H106" s="1" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="D107" s="3">
-        <v>106</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="G107" s="1">
-        <v>22</v>
-      </c>
       <c r="H107" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D108" s="3">
+        <v>106</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="G108" s="1">
+        <v>22</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="D109" s="3">
+        <v>107</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="G109" s="1">
+        <v>23</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="D108" s="3">
-        <v>107</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="G108" s="1">
-        <v>23</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="D110" s="3">
+        <v>108</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="G110" s="1">
+        <v>24</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="D109" s="3">
-        <v>108</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="G109" s="1">
-        <v>24</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+      <c r="B111" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D111" s="3">
+        <v>109</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="G111" s="1">
+        <v>25</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D110" s="3">
-        <v>109</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="G110" s="1">
-        <v>25</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="D111" s="3">
+      <c r="D112" s="3">
         <v>110</v>
       </c>
-      <c r="E111" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="G111" s="1">
+      <c r="E112" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="G112" s="1">
         <v>26</v>
       </c>
-      <c r="H111" s="1" t="s">
-        <v>276</v>
+      <c r="H112" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/lookupData/objectives-en.xlsx
+++ b/lookupData/objectives-en.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camer\OneDrive\Documents\GitHub\BedrockStatsTracker\lookupData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67132EB1-9B7C-4BE5-AA1D-0232A5892C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C584409-FA6E-4865-98DF-6F061274806D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="637">
   <si>
     <t>In-game description</t>
   </si>
@@ -1993,35 +1993,19 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="22">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2055,6 +2039,36 @@
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2069,37 +2083,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11298E10-21DD-4EBF-8BF9-EA571BEEC72E}" name="Table1" displayName="Table1" ref="A2:H127" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A2:H127" xr:uid="{11298E10-21DD-4EBF-8BF9-EA571BEEC72E}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{324771F9-822A-49B7-893D-1DA308D60F66}" name="Achievment" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{B22A3C33-D5FF-489D-81A0-0CD56EF167F6}" name="In-game description" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{3735BB57-B1D2-421D-9276-41B28AD37626}" name="Actual requirements (if different)" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{F9AD4A86-89AB-4252-BDC8-8698B593B077}" name="#" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{36B12DC4-1FAB-47F0-B495-DEEF3597AFFC}" name="Category" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{8DA34B88-F916-4B29-AA18-6228488B3C65}" name="Object" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{132DC9C0-CA6E-4B12-886A-9AB9F8BB67DB}" name="Index" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{ED2AFE63-C022-4969-A969-B12DDDC6F848}" name="Achievement (English Title)" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{11298E10-21DD-4EBF-8BF9-EA571BEEC72E}" name="Table1" displayName="Table1" ref="A2:I127" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A2:I127" xr:uid="{11298E10-21DD-4EBF-8BF9-EA571BEEC72E}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{324771F9-822A-49B7-893D-1DA308D60F66}" name="Achievment" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{B22A3C33-D5FF-489D-81A0-0CD56EF167F6}" name="In-game description" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{3735BB57-B1D2-421D-9276-41B28AD37626}" name="Actual requirements (if different)" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{F9AD4A86-89AB-4252-BDC8-8698B593B077}" name="#" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{36B12DC4-1FAB-47F0-B495-DEEF3597AFFC}" name="Category" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{8DA34B88-F916-4B29-AA18-6228488B3C65}" name="Object" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{132DC9C0-CA6E-4B12-886A-9AB9F8BB67DB}" name="Index" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{ED2AFE63-C022-4969-A969-B12DDDC6F848}" name="Achievement (English Title)" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{A2DD8B78-9D4B-4932-958E-405ADE709BD5}" name="Column1" dataDxfId="1">
+      <calculatedColumnFormula>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{54FDD79E-9496-444E-BAAB-2BDD7213F39D}" name="Table2" displayName="Table2" ref="A2:H112" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{54FDD79E-9496-444E-BAAB-2BDD7213F39D}" name="Table2" displayName="Table2" ref="A2:H112" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A2:H112" xr:uid="{54FDD79E-9496-444E-BAAB-2BDD7213F39D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E112">
     <sortCondition ref="D2:D112"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{28B57E88-78E1-4471-B423-47178E900D39}" name="Advancement" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{3330A286-8064-4F71-8D6D-082AF5351B16}" name="In-game description" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{C6C9DE83-41CB-42D6-BAFA-5804D4D2C45F}" name="Actual requirements (if different)" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{27AB76C4-3016-4553-A87A-9C1F759A0798}" name="#" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{FF11131C-C5A2-4438-95D7-DCC625EAB401}" name="Column1" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{82ED0A77-34F2-4BBE-A373-52F72CBA1F8D}" name="Object" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{DB75B182-1053-43D2-9CB9-47C7FFF3DEDE}" name="Index" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{81839B7A-887C-4908-8072-601F3ED76542}" name="Advancement (English Title)" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{28B57E88-78E1-4471-B423-47178E900D39}" name="Advancement" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{3330A286-8064-4F71-8D6D-082AF5351B16}" name="In-game description" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{C6C9DE83-41CB-42D6-BAFA-5804D4D2C45F}" name="Actual requirements (if different)" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{27AB76C4-3016-4553-A87A-9C1F759A0798}" name="#" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{FF11131C-C5A2-4438-95D7-DCC625EAB401}" name="Column1" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{82ED0A77-34F2-4BBE-A373-52F72CBA1F8D}" name="Object" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{DB75B182-1053-43D2-9CB9-47C7FFF3DEDE}" name="Index" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{81839B7A-887C-4908-8072-601F3ED76542}" name="Advancement (English Title)" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2368,10 +2385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H127"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="D14" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2379,11 +2396,13 @@
     <col min="1" max="1" width="35.5703125" style="2" customWidth="1"/>
     <col min="2" max="3" width="50.5703125" style="1"/>
     <col min="4" max="4" width="5.5703125" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="50.5703125" style="1"/>
+    <col min="5" max="6" width="50.5703125" style="1"/>
+    <col min="7" max="7" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="50.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>636</v>
       </c>
@@ -2408,8 +2427,11 @@
       <c r="H2" s="1" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>249</v>
       </c>
@@ -2434,8 +2456,12 @@
       <c r="H3" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>102</v>
       </c>
@@ -2460,8 +2486,12 @@
       <c r="H4" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I4" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -2486,8 +2516,12 @@
       <c r="H5" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I5" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>288</v>
       </c>
@@ -2512,8 +2546,12 @@
       <c r="H6" s="1" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>109</v>
       </c>
@@ -2538,8 +2576,12 @@
       <c r="H7" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -2564,8 +2606,12 @@
       <c r="H8" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>285</v>
       </c>
@@ -2590,8 +2636,12 @@
       <c r="H9" s="1" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Husbandry11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -2616,8 +2666,12 @@
       <c r="H10" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Husbandry12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>278</v>
       </c>
@@ -2642,8 +2696,12 @@
       <c r="H11" s="1" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Husbandry13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>99</v>
       </c>
@@ -2668,8 +2726,12 @@
       <c r="H12" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="I12" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>62</v>
       </c>
@@ -2694,8 +2756,12 @@
       <c r="H13" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I13" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Husbandry14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>170</v>
       </c>
@@ -2720,8 +2786,12 @@
       <c r="H14" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Adventure11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>291</v>
       </c>
@@ -2746,8 +2816,12 @@
       <c r="H15" s="1" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="I15" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>164</v>
       </c>
@@ -2772,8 +2846,12 @@
       <c r="H16" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Adventure12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>59</v>
       </c>
@@ -2798,8 +2876,12 @@
       <c r="H17" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I17" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Husbandry15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>313</v>
       </c>
@@ -2824,8 +2906,12 @@
       <c r="H18" s="1" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="I18" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Adventure13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>228</v>
       </c>
@@ -2850,8 +2936,12 @@
       <c r="H19" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Adventure14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>68</v>
       </c>
@@ -2876,8 +2966,12 @@
       <c r="H20" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>125</v>
       </c>
@@ -2902,8 +2996,12 @@
       <c r="H21" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Nether11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>209</v>
       </c>
@@ -2928,8 +3026,12 @@
       <c r="H22" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Nether12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>122</v>
       </c>
@@ -2954,8 +3056,12 @@
       <c r="H23" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I23" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Nether13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>149</v>
       </c>
@@ -2980,8 +3086,12 @@
       <c r="H24" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I24" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Nether14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>268</v>
       </c>
@@ -3006,8 +3116,12 @@
       <c r="H25" s="1" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>The_End11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>265</v>
       </c>
@@ -3032,8 +3146,12 @@
       <c r="H26" s="1" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I26" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>The_End12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>83</v>
       </c>
@@ -3058,8 +3176,12 @@
       <c r="H27" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I27" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>180</v>
       </c>
@@ -3084,8 +3206,12 @@
       <c r="H28" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I28" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Adventure15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>144</v>
       </c>
@@ -3110,8 +3236,12 @@
       <c r="H29" s="1" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I29" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Adventure16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>5</v>
       </c>
@@ -3136,8 +3266,12 @@
       <c r="H30" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I30" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Adventure17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>257</v>
       </c>
@@ -3157,13 +3291,17 @@
         <v>628</v>
       </c>
       <c r="G31" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I31" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Nether15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>260</v>
       </c>
@@ -3183,13 +3321,17 @@
         <v>628</v>
       </c>
       <c r="G32" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I32" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Nether16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>254</v>
       </c>
@@ -3209,13 +3351,17 @@
         <v>628</v>
       </c>
       <c r="G33" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Nether17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>206</v>
       </c>
@@ -3235,13 +3381,17 @@
         <v>625</v>
       </c>
       <c r="G34" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I34" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Husbandry17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>65</v>
       </c>
@@ -3266,8 +3416,12 @@
       <c r="H35" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>183</v>
       </c>
@@ -3292,8 +3446,12 @@
       <c r="H36" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I36" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>161</v>
       </c>
@@ -3318,8 +3476,12 @@
       <c r="H37" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>73</v>
       </c>
@@ -3344,8 +3506,12 @@
       <c r="H38" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="I38" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>139</v>
       </c>
@@ -3365,13 +3531,17 @@
         <v>625</v>
       </c>
       <c r="G39" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Husbandry16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>194</v>
       </c>
@@ -3391,13 +3561,17 @@
         <v>625</v>
       </c>
       <c r="G40" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I40" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Husbandry18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>186</v>
       </c>
@@ -3422,8 +3596,12 @@
       <c r="H41" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I41" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Adventure18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>273</v>
       </c>
@@ -3448,8 +3626,12 @@
       <c r="H42" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>196</v>
       </c>
@@ -3474,8 +3656,12 @@
       <c r="H43" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>135</v>
       </c>
@@ -3500,8 +3686,12 @@
       <c r="H44" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I44" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>128</v>
       </c>
@@ -3526,8 +3716,12 @@
       <c r="H45" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Adventure19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>107</v>
       </c>
@@ -3547,13 +3741,17 @@
         <v>625</v>
       </c>
       <c r="G46" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="I46" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Husbandry19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>200</v>
       </c>
@@ -3573,13 +3771,17 @@
         <v>625</v>
       </c>
       <c r="G47" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Husbandry110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>241</v>
       </c>
@@ -3604,8 +3806,12 @@
       <c r="H48" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="I48" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Adventure110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
@@ -3630,8 +3836,12 @@
       <c r="H49" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I49" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>203</v>
       </c>
@@ -3656,8 +3866,12 @@
       <c r="H50" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>34</v>
       </c>
@@ -3677,13 +3891,17 @@
         <v>625</v>
       </c>
       <c r="G51" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Husbandry111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>131</v>
       </c>
@@ -3708,8 +3926,12 @@
       <c r="H52" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="I52" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>325</v>
       </c>
@@ -3729,13 +3951,17 @@
         <v>625</v>
       </c>
       <c r="G53" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Husbandry112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>147</v>
       </c>
@@ -3755,13 +3981,17 @@
         <v>625</v>
       </c>
       <c r="G54" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Husbandry113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>14</v>
       </c>
@@ -3786,8 +4016,12 @@
       <c r="H55" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I55" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Adventure111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>281</v>
       </c>
@@ -3812,8 +4046,12 @@
       <c r="H56" s="1" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>299</v>
       </c>
@@ -3838,8 +4076,12 @@
       <c r="H57" s="1" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Adventure112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>41</v>
       </c>
@@ -3864,8 +4106,12 @@
       <c r="H58" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I58" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Adventure113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>152</v>
       </c>
@@ -3890,8 +4136,12 @@
       <c r="H59" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I59" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>94</v>
       </c>
@@ -3916,8 +4166,12 @@
       <c r="H60" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I60" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>220</v>
       </c>
@@ -3942,8 +4196,12 @@
       <c r="H61" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I61" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>251</v>
       </c>
@@ -3968,8 +4226,12 @@
       <c r="H62" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I62" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Adventure114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>120</v>
       </c>
@@ -3989,13 +4251,17 @@
         <v>624</v>
       </c>
       <c r="G63" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>212</v>
       </c>
@@ -4015,13 +4281,17 @@
         <v>625</v>
       </c>
       <c r="G64" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Husbandry114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>16</v>
       </c>
@@ -4041,13 +4311,17 @@
         <v>625</v>
       </c>
       <c r="G65" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="I65" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Husbandry115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>91</v>
       </c>
@@ -4072,8 +4346,12 @@
       <c r="H66" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Adventure115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>198</v>
       </c>
@@ -4093,13 +4371,17 @@
         <v>625</v>
       </c>
       <c r="G67" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Husbandry116</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>263</v>
       </c>
@@ -4124,8 +4406,12 @@
       <c r="H68" s="1" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Adventure116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>78</v>
       </c>
@@ -4145,13 +4431,17 @@
         <v>624</v>
       </c>
       <c r="G69" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>245</v>
       </c>
@@ -4171,13 +4461,17 @@
         <v>624</v>
       </c>
       <c r="G70" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>322</v>
       </c>
@@ -4202,8 +4496,12 @@
       <c r="H71" s="1" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I71" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>The_End13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>23</v>
       </c>
@@ -4223,13 +4521,17 @@
         <v>628</v>
       </c>
       <c r="G72" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Nether18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>271</v>
       </c>
@@ -4254,8 +4556,12 @@
       <c r="H73" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>The_End14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>105</v>
       </c>
@@ -4280,8 +4586,12 @@
       <c r="H74" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I74" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>The_End15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>247</v>
       </c>
@@ -4306,8 +4616,12 @@
       <c r="H75" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I75" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>The_End16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>301</v>
       </c>
@@ -4332,8 +4646,12 @@
       <c r="H76" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Adventure117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>178</v>
       </c>
@@ -4358,8 +4676,12 @@
       <c r="H77" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I77" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>The_End17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>50</v>
       </c>
@@ -4384,8 +4706,12 @@
       <c r="H78" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Adventure118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>86</v>
       </c>
@@ -4410,8 +4736,12 @@
       <c r="H79" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I79" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Adventure119</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>142</v>
       </c>
@@ -4436,8 +4766,12 @@
       <c r="H80" s="1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Adventure120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>231</v>
       </c>
@@ -4457,13 +4791,17 @@
         <v>625</v>
       </c>
       <c r="G81" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Husbandry117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>18</v>
       </c>
@@ -4488,8 +4826,12 @@
       <c r="H82" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I82" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Adventure121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>214</v>
       </c>
@@ -4514,8 +4856,12 @@
       <c r="H83" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I83" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Adventure122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>45</v>
       </c>
@@ -4540,8 +4886,12 @@
       <c r="H84" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Adventure123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>8</v>
       </c>
@@ -4566,8 +4916,12 @@
       <c r="H85" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Adventure124</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>115</v>
       </c>
@@ -4587,13 +4941,17 @@
         <v>625</v>
       </c>
       <c r="G86" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I86" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Husbandry118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>158</v>
       </c>
@@ -4618,8 +4976,12 @@
       <c r="H87" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Adventure125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>217</v>
       </c>
@@ -4639,13 +5001,17 @@
         <v>627</v>
       </c>
       <c r="G88" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="I88" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Adventure126</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>11</v>
       </c>
@@ -4665,13 +5031,17 @@
         <v>624</v>
       </c>
       <c r="G89" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I89" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>75</v>
       </c>
@@ -4691,13 +5061,17 @@
         <v>627</v>
       </c>
       <c r="G90" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I90" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Adventure127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>173</v>
       </c>
@@ -4717,13 +5091,17 @@
         <v>624</v>
       </c>
       <c r="G91" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I91" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story129</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4743,13 +5121,17 @@
         <v>627</v>
       </c>
       <c r="G92" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I92" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Adventure128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>167</v>
       </c>
@@ -4769,13 +5151,17 @@
         <v>624</v>
       </c>
       <c r="G93" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I93" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>294</v>
       </c>
@@ -4795,13 +5181,17 @@
         <v>624</v>
       </c>
       <c r="G94" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I94" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>316</v>
       </c>
@@ -4821,13 +5211,17 @@
         <v>625</v>
       </c>
       <c r="G95" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I95" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Husbandry119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>328</v>
       </c>
@@ -4847,13 +5241,17 @@
         <v>625</v>
       </c>
       <c r="G96" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I96" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Husbandry120</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
@@ -4873,13 +5271,17 @@
         <v>624</v>
       </c>
       <c r="G97" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I97" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story132</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>191</v>
       </c>
@@ -4899,13 +5301,17 @@
         <v>625</v>
       </c>
       <c r="G98" s="1">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I98" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Husbandry121</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>137</v>
       </c>
@@ -4925,13 +5331,17 @@
         <v>627</v>
       </c>
       <c r="G99" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I99" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Adventure129</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>38</v>
       </c>
@@ -4948,16 +5358,20 @@
         <v>623</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="G100" s="1">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I100" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story21</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>71</v>
       </c>
@@ -4977,13 +5391,17 @@
         <v>631</v>
       </c>
       <c r="G101" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I101" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story22</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>307</v>
       </c>
@@ -5003,13 +5421,17 @@
         <v>627</v>
       </c>
       <c r="G102" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I102" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Adventure130</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>236</v>
       </c>
@@ -5029,13 +5451,17 @@
         <v>631</v>
       </c>
       <c r="G103" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I103" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>118</v>
       </c>
@@ -5055,13 +5481,17 @@
         <v>627</v>
       </c>
       <c r="G104" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I104" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Adventure131</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>155</v>
       </c>
@@ -5081,13 +5511,17 @@
         <v>631</v>
       </c>
       <c r="G105" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I105" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>283</v>
       </c>
@@ -5107,13 +5541,17 @@
         <v>631</v>
       </c>
       <c r="G106" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I106" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>26</v>
       </c>
@@ -5133,13 +5571,17 @@
         <v>625</v>
       </c>
       <c r="G107" s="1">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I107" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Husbandry122</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>297</v>
       </c>
@@ -5159,13 +5601,17 @@
         <v>625</v>
       </c>
       <c r="G108" s="1">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I108" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Husbandry123</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>243</v>
       </c>
@@ -5185,13 +5631,17 @@
         <v>631</v>
       </c>
       <c r="G109" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I109" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story26</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>36</v>
       </c>
@@ -5211,13 +5661,17 @@
         <v>631</v>
       </c>
       <c r="G110" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I110" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story27</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>56</v>
       </c>
@@ -5237,13 +5691,17 @@
         <v>628</v>
       </c>
       <c r="G111" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I111" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Nether19</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>175</v>
       </c>
@@ -5263,13 +5721,17 @@
         <v>628</v>
       </c>
       <c r="G112" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I112" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Nether110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>112</v>
       </c>
@@ -5289,13 +5751,17 @@
         <v>628</v>
       </c>
       <c r="G113" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I113" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Nether111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>310</v>
       </c>
@@ -5315,13 +5781,17 @@
         <v>627</v>
       </c>
       <c r="G114" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="I114" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Adventure132</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>304</v>
       </c>
@@ -5341,13 +5811,17 @@
         <v>631</v>
       </c>
       <c r="G115" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="I115" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story28</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>275</v>
       </c>
@@ -5367,13 +5841,17 @@
         <v>625</v>
       </c>
       <c r="G116" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I116" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Husbandry124</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>48</v>
       </c>
@@ -5393,13 +5871,17 @@
         <v>631</v>
       </c>
       <c r="G117" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I117" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story29</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>238</v>
       </c>
@@ -5419,13 +5901,17 @@
         <v>631</v>
       </c>
       <c r="G118" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I118" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story210</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>233</v>
       </c>
@@ -5445,13 +5931,17 @@
         <v>631</v>
       </c>
       <c r="G119" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="I119" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story211</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>88</v>
       </c>
@@ -5471,13 +5961,17 @@
         <v>628</v>
       </c>
       <c r="G120" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I120" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Nether112</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>133</v>
       </c>
@@ -5497,13 +5991,17 @@
         <v>631</v>
       </c>
       <c r="G121" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I121" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story212</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>31</v>
       </c>
@@ -5523,13 +6021,17 @@
         <v>625</v>
       </c>
       <c r="G122" s="1">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I122" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Husbandry125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>319</v>
       </c>
@@ -5549,13 +6051,17 @@
         <v>628</v>
       </c>
       <c r="G123" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I123" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Nether113</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>225</v>
       </c>
@@ -5575,13 +6081,17 @@
         <v>631</v>
       </c>
       <c r="G124" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I124" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story213</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>189</v>
       </c>
@@ -5601,13 +6111,17 @@
         <v>631</v>
       </c>
       <c r="G125" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I125" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story214</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>43</v>
       </c>
@@ -5627,13 +6141,17 @@
         <v>631</v>
       </c>
       <c r="G126" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I126" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story215</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>223</v>
       </c>
@@ -5653,14 +6171,21 @@
         <v>631</v>
       </c>
       <c r="G127" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>223</v>
       </c>
+      <c r="I127" s="1" t="str">
+        <f>CONCATENATE(Table1[[#This Row],[Object]],Table1[[#This Row],[Index]])</f>
+        <v>Story216</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -5672,8 +6197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771D2FCF-03EA-4C2E-BCB7-15D3321DB186}">
   <dimension ref="A2:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6774,7 +7299,6 @@
         <v>630</v>
       </c>
       <c r="G43" s="1">
-        <f>1</f>
         <v>1</v>
       </c>
       <c r="H43" s="1" t="s">
@@ -6905,8 +7429,7 @@
         <v>630</v>
       </c>
       <c r="G48" s="1">
-        <f>1</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>322</v>
@@ -6932,7 +7455,7 @@
         <v>630</v>
       </c>
       <c r="G49" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>446</v>
@@ -6958,7 +7481,7 @@
         <v>630</v>
       </c>
       <c r="G50" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>449</v>
@@ -6984,7 +7507,7 @@
         <v>630</v>
       </c>
       <c r="G51" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>105</v>
@@ -7010,7 +7533,6 @@
         <v>627</v>
       </c>
       <c r="G52" s="1">
-        <f>1</f>
         <v>1</v>
       </c>
       <c r="H52" s="1" t="s">
